--- a/BURL.xlsx
+++ b/BURL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F94B720-7D4A-4216-A56E-7EC28C67444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61FAA79-F112-47B1-A27D-7FFB2070F1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{C745F4EA-6A7E-4A07-A8BF-2B36F0EE508D}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{C745F4EA-6A7E-4A07-A8BF-2B36F0EE508D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -250,13 +250,13 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -596,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF51F298-D9E0-4E7E-A11D-B7C7DAC26F50}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -697,11 +697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7958BF-2B17-4548-B028-78081AE6CD78}">
   <dimension ref="A1:BB238"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2194,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="7" t="e">
-        <f t="shared" ref="C26:I26" si="12">+C10/C7</f>
+        <f t="shared" ref="C26:H26" si="12">+C10/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="7" t="e">
@@ -2275,7 +2275,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="7" t="e">
-        <f t="shared" ref="C27:I27" si="13">+C15/C7</f>
+        <f t="shared" ref="C27:H27" si="13">+C15/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="7" t="e">
@@ -2356,7 +2356,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="7" t="e">
-        <f t="shared" ref="C28:I28" si="14">+C19/C18</f>
+        <f t="shared" ref="C28:H28" si="14">+C19/C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="7" t="e">

--- a/BURL.xlsx
+++ b/BURL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61FAA79-F112-47B1-A27D-7FFB2070F1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B34BE8-4F3D-46EC-BBCD-A3432907C79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{C745F4EA-6A7E-4A07-A8BF-2B36F0EE508D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{C745F4EA-6A7E-4A07-A8BF-2B36F0EE508D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Burlington Store</t>
   </si>
@@ -70,18 +70,6 @@
   </si>
   <si>
     <t>Main</t>
-  </si>
-  <si>
-    <t>Q123</t>
-  </si>
-  <si>
-    <t>Q223</t>
-  </si>
-  <si>
-    <t>Q323</t>
-  </si>
-  <si>
-    <t>Q423</t>
   </si>
   <si>
     <t>Q124</t>
@@ -185,6 +173,30 @@
   <si>
     <t>FY24</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +259,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +270,7 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -596,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF51F298-D9E0-4E7E-A11D-B7C7DAC26F50}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>292.68</v>
+        <v>279.45999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -626,10 +639,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>63.481003999999999</v>
+        <v>63.086660000000002</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -641,7 +654,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>18579.62025072</v>
+        <v>17630.198003599999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -652,10 +665,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>857.8</v>
+        <v>371.09199999999998</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -663,11 +676,11 @@
         <v>6</v>
       </c>
       <c r="I6" s="3">
-        <f>1542.712+170.823</f>
-        <v>1713.5350000000001</v>
+        <f>1637.073+14.804</f>
+        <v>1651.8770000000002</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -676,12 +689,12 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>19435.35525072</v>
+        <v>18910.983003599998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I10" s="3">
         <v>1007</v>
@@ -695,13 +708,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7958BF-2B17-4548-B028-78081AE6CD78}">
-  <dimension ref="A1:BB238"/>
+  <dimension ref="A1:BF238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,12 +723,12 @@
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
@@ -726,45 +739,57 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
+      <c r="K2" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -774,17 +799,21 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="P3">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="T3">
         <v>840</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>927</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>1007</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -793,10 +822,14 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -804,13 +837,17 @@
         <v>2284.6729999999998</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>2357.3180000000002</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>2526.174</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>2500.0749999999998</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -853,11 +890,15 @@
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
-      <c r="BB5" s="3"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="3"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -865,13 +906,17 @@
         <v>4.673</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>4.2350000000000003</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>4.5220000000000002</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>3.9449999999999998</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -914,11 +959,15 @@
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
-      <c r="BB6" s="3"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="3"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" ref="C7:I7" si="0">+C5+C6</f>
@@ -938,7 +987,7 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2361.5530000000003</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
@@ -952,10 +1001,13 @@
         <f>+J5+J6</f>
         <v>0</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="K7" s="6">
+        <f>+K5+K6</f>
+        <v>2504.02</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -995,11 +1047,15 @@
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
-      <c r="BB7" s="3"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="3"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1007,13 +1063,17 @@
         <v>1297.8050000000001</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>1330.7260000000001</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>1418.143</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>1405.0909999999999</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1056,11 +1116,15 @@
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
-      <c r="BB8" s="3"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="3"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:H9" si="1">+C7-C8</f>
@@ -1080,7 +1144,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1030.8270000000002</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
@@ -1091,10 +1155,13 @@
         <v>1112.5529999999999</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ref="J9" si="2">+J7-J8</f>
+        <f t="shared" ref="J9:K9" si="2">+J7-J8</f>
         <v>0</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>1098.9290000000001</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1137,11 +1204,15 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
-      <c r="BB9" s="3"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="3"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1149,13 +1220,17 @@
         <v>826.822</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>825.226</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>893.09199999999998</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>868.05799999999999</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1198,11 +1273,15 @@
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
-      <c r="BB10" s="3"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="3"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1210,13 +1289,17 @@
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>4.5330000000000004</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>0.112</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1259,11 +1342,15 @@
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
-      <c r="BB11" s="3"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="3"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1271,13 +1358,17 @@
         <v>76.087000000000003</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>81.965000000000003</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>87.47</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>91.783000000000001</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1320,11 +1411,15 @@
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
-      <c r="BB12" s="3"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="3"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1332,13 +1427,17 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>8.2100000000000009</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>3.044</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>0.51600000000000001</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1381,11 +1480,15 @@
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
-      <c r="BB13" s="3"/>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="3"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1393,13 +1496,17 @@
         <v>12.384</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>10.862</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <v>12.824999999999999</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>10.222</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1442,11 +1549,15 @@
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
-      <c r="BB14" s="3"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="3"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ref="C15:H15" si="3">+C9-SUM(C10:C13)+C14</f>
@@ -1466,7 +1577,7 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>126.28800000000015</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="3"/>
@@ -1477,10 +1588,13 @@
         <v>137.23899999999986</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" ref="J15" si="4">+J9-SUM(J10:J13)+J14</f>
+        <f t="shared" ref="J15:K15" si="4">+J9-SUM(J10:J13)+J14</f>
         <v>0</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <f t="shared" si="4"/>
+        <v>148.68200000000016</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1523,11 +1637,15 @@
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
-      <c r="BB15" s="3"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="3"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1535,13 +1653,17 @@
         <v>13.63</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <v>1.4119999999999999</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1584,11 +1706,15 @@
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
-      <c r="BB16" s="3"/>
-    </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="3"/>
+    </row>
+    <row r="17" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1596,13 +1722,17 @@
         <v>19.68</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>16.649000000000001</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <v>17.768999999999998</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>15.81</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1645,11 +1775,15 @@
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
-      <c r="BB17" s="3"/>
-    </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="3"/>
+    </row>
+    <row r="18" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ref="C18:H18" si="5">+C15-C16-C17</f>
@@ -1669,7 +1803,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>109.63900000000015</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="5"/>
@@ -1680,10 +1814,13 @@
         <v>118.05799999999985</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" ref="J18" si="6">+J15-J16-J17</f>
+        <f t="shared" ref="J18:K18" si="6">+J15-J16-J17</f>
         <v>0</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <f t="shared" si="6"/>
+        <v>132.87200000000016</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1726,11 +1863,15 @@
       <c r="AY18" s="2"/>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
-      <c r="BB18" s="3"/>
-    </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="3"/>
+    </row>
+    <row r="19" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1738,13 +1879,17 @@
         <v>18.341000000000001</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>31.125</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
         <v>27.440999999999999</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>32.039000000000001</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1787,11 +1932,15 @@
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
-      <c r="BB19" s="3"/>
-    </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="3"/>
+    </row>
+    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ref="C20:H20" si="7">+C18-C19</f>
@@ -1811,7 +1960,7 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>78.514000000000152</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="7"/>
@@ -1822,10 +1971,13 @@
         <v>90.616999999999848</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ref="J20" si="8">+J18-J19</f>
+        <f t="shared" ref="J20:K20" si="8">+J18-J19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <f t="shared" si="8"/>
+        <v>100.83300000000015</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1868,9 +2020,13 @@
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
-      <c r="BB20" s="3"/>
-    </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="3"/>
+    </row>
+    <row r="21" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1922,11 +2078,15 @@
       <c r="AY21" s="2"/>
       <c r="AZ21" s="2"/>
       <c r="BA21" s="2"/>
-      <c r="BB21" s="3"/>
-    </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="3"/>
+    </row>
+    <row r="22" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="e">
         <f t="shared" ref="C22:H22" si="9">+C20/C23</f>
@@ -1944,9 +2104,9 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="2" t="e">
+      <c r="G22" s="2">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.229258975121732</v>
       </c>
       <c r="H22" s="2" t="e">
         <f t="shared" si="9"/>
@@ -1957,10 +2117,13 @@
         <v>1.4256249705017046</v>
       </c>
       <c r="J22" s="2" t="e">
-        <f t="shared" ref="J22" si="10">+J20/J23</f>
+        <f t="shared" ref="J22:K22" si="10">+J20/J23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <f t="shared" si="10"/>
+        <v>1.5982912756784198</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2003,9 +2166,13 @@
       <c r="AY22" s="2"/>
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
-      <c r="BB22" s="3"/>
-    </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="3"/>
+    </row>
+    <row r="23" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -2015,13 +2182,17 @@
         <v>64.706999999999994</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>63.871000000000002</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
         <v>63.563000000000002</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>63.088000000000001</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2064,9 +2235,13 @@
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
-      <c r="BB23" s="3"/>
-    </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="3"/>
+    </row>
+    <row r="24" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2118,36 +2293,43 @@
       <c r="AY24" s="2"/>
       <c r="AZ24" s="2"/>
       <c r="BA24" s="2"/>
-      <c r="BB24" s="3"/>
-    </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="7" t="e">
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="3"/>
+    </row>
+    <row r="25" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8" t="e">
         <f t="shared" ref="G25:H25" si="11">+G7/C7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="7" t="e">
+      <c r="H25" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <f>+I7/E7-1</f>
         <v>0.10542312083887739</v>
       </c>
-      <c r="J25" s="7" t="e">
+      <c r="J25" s="8" t="e">
         <f>+J7/F7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="K25" s="8">
+        <f>+K7/G7-1</f>
+        <v>6.0327674204220472E-2</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2187,11 +2369,15 @@
       <c r="AY25" s="2"/>
       <c r="AZ25" s="2"/>
       <c r="BA25" s="2"/>
-      <c r="BB25" s="3"/>
-    </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="3"/>
+    </row>
+    <row r="26" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7" t="e">
         <f t="shared" ref="C26:H26" si="12">+C10/C7</f>
@@ -2209,9 +2395,9 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="7" t="e">
+      <c r="G26" s="7">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.34944208323929205</v>
       </c>
       <c r="H26" s="7" t="e">
         <f t="shared" si="12"/>
@@ -2225,10 +2411,13 @@
         <f>+J10/J7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="K26" s="7">
+        <f>+K10/K7</f>
+        <v>0.34666576145557942</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2268,11 +2457,15 @@
       <c r="AY26" s="2"/>
       <c r="AZ26" s="2"/>
       <c r="BA26" s="2"/>
-      <c r="BB26" s="3"/>
-    </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="3"/>
+    </row>
+    <row r="27" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C27" s="7" t="e">
         <f t="shared" ref="C27:H27" si="13">+C15/C7</f>
@@ -2290,9 +2483,9 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="7" t="e">
+      <c r="G27" s="7">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>5.347667403611104E-2</v>
       </c>
       <c r="H27" s="7" t="e">
         <f t="shared" si="13"/>
@@ -2306,10 +2499,13 @@
         <f>+J15/J7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="K27" s="7">
+        <f>+K15/K7</f>
+        <v>5.9377321267402083E-2</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2349,11 +2545,15 @@
       <c r="AY27" s="2"/>
       <c r="AZ27" s="2"/>
       <c r="BA27" s="2"/>
-      <c r="BB27" s="3"/>
-    </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="3"/>
+    </row>
+    <row r="28" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7" t="e">
         <f t="shared" ref="C28:H28" si="14">+C19/C18</f>
@@ -2371,9 +2571,9 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="7" t="e">
+      <c r="G28" s="7">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.28388620837475675</v>
       </c>
       <c r="H28" s="7" t="e">
         <f t="shared" si="14"/>
@@ -2387,10 +2587,13 @@
         <f>+J19/J18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="K28" s="7">
+        <f>+K19/K18</f>
+        <v>0.24112679872358334</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2430,9 +2633,13 @@
       <c r="AY28" s="2"/>
       <c r="AZ28" s="2"/>
       <c r="BA28" s="2"/>
-      <c r="BB28" s="3"/>
-    </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="3"/>
+    </row>
+    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2484,9 +2691,13 @@
       <c r="AY29" s="2"/>
       <c r="AZ29" s="2"/>
       <c r="BA29" s="2"/>
-      <c r="BB29" s="3"/>
-    </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="3"/>
+    </row>
+    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2538,9 +2749,13 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="3"/>
-    </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="3"/>
+    </row>
+    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2592,9 +2807,13 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="3"/>
-    </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="3"/>
+    </row>
+    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2646,9 +2865,13 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="3"/>
-    </row>
-    <row r="33" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="3"/>
+    </row>
+    <row r="33" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2700,9 +2923,13 @@
       <c r="AY33" s="2"/>
       <c r="AZ33" s="2"/>
       <c r="BA33" s="2"/>
-      <c r="BB33" s="3"/>
-    </row>
-    <row r="34" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="3"/>
+    </row>
+    <row r="34" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2754,9 +2981,13 @@
       <c r="AY34" s="2"/>
       <c r="AZ34" s="2"/>
       <c r="BA34" s="2"/>
-      <c r="BB34" s="3"/>
-    </row>
-    <row r="35" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="3"/>
+    </row>
+    <row r="35" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2808,9 +3039,13 @@
       <c r="AY35" s="2"/>
       <c r="AZ35" s="2"/>
       <c r="BA35" s="2"/>
-      <c r="BB35" s="3"/>
-    </row>
-    <row r="36" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="3"/>
+    </row>
+    <row r="36" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2862,9 +3097,13 @@
       <c r="AY36" s="2"/>
       <c r="AZ36" s="2"/>
       <c r="BA36" s="2"/>
-      <c r="BB36" s="3"/>
-    </row>
-    <row r="37" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="3"/>
+    </row>
+    <row r="37" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2916,9 +3155,13 @@
       <c r="AY37" s="2"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
-      <c r="BB37" s="3"/>
-    </row>
-    <row r="38" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="3"/>
+    </row>
+    <row r="38" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2970,9 +3213,13 @@
       <c r="AY38" s="2"/>
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
-      <c r="BB38" s="3"/>
-    </row>
-    <row r="39" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="3"/>
+    </row>
+    <row r="39" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3024,9 +3271,13 @@
       <c r="AY39" s="2"/>
       <c r="AZ39" s="2"/>
       <c r="BA39" s="2"/>
-      <c r="BB39" s="3"/>
-    </row>
-    <row r="40" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="3"/>
+    </row>
+    <row r="40" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -3078,9 +3329,13 @@
       <c r="AY40" s="2"/>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
-      <c r="BB40" s="3"/>
-    </row>
-    <row r="41" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="3"/>
+    </row>
+    <row r="41" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3132,9 +3387,13 @@
       <c r="AY41" s="2"/>
       <c r="AZ41" s="2"/>
       <c r="BA41" s="2"/>
-      <c r="BB41" s="3"/>
-    </row>
-    <row r="42" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="3"/>
+    </row>
+    <row r="42" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3186,9 +3445,13 @@
       <c r="AY42" s="2"/>
       <c r="AZ42" s="2"/>
       <c r="BA42" s="2"/>
-      <c r="BB42" s="3"/>
-    </row>
-    <row r="43" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="3"/>
+    </row>
+    <row r="43" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -3240,9 +3503,13 @@
       <c r="AY43" s="2"/>
       <c r="AZ43" s="2"/>
       <c r="BA43" s="2"/>
-      <c r="BB43" s="3"/>
-    </row>
-    <row r="44" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="3"/>
+    </row>
+    <row r="44" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -3294,9 +3561,13 @@
       <c r="AY44" s="2"/>
       <c r="AZ44" s="2"/>
       <c r="BA44" s="2"/>
-      <c r="BB44" s="3"/>
-    </row>
-    <row r="45" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="2"/>
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="3"/>
+    </row>
+    <row r="45" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -3348,9 +3619,13 @@
       <c r="AY45" s="2"/>
       <c r="AZ45" s="2"/>
       <c r="BA45" s="2"/>
-      <c r="BB45" s="3"/>
-    </row>
-    <row r="46" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="2"/>
+      <c r="BE45" s="2"/>
+      <c r="BF45" s="3"/>
+    </row>
+    <row r="46" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -3402,9 +3677,13 @@
       <c r="AY46" s="2"/>
       <c r="AZ46" s="2"/>
       <c r="BA46" s="2"/>
-      <c r="BB46" s="3"/>
-    </row>
-    <row r="47" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="2"/>
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="3"/>
+    </row>
+    <row r="47" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -3456,9 +3735,13 @@
       <c r="AY47" s="2"/>
       <c r="AZ47" s="2"/>
       <c r="BA47" s="2"/>
-      <c r="BB47" s="3"/>
-    </row>
-    <row r="48" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="3"/>
+    </row>
+    <row r="48" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -3510,9 +3793,13 @@
       <c r="AY48" s="2"/>
       <c r="AZ48" s="2"/>
       <c r="BA48" s="2"/>
-      <c r="BB48" s="3"/>
-    </row>
-    <row r="49" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="3"/>
+    </row>
+    <row r="49" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -3564,9 +3851,13 @@
       <c r="AY49" s="2"/>
       <c r="AZ49" s="2"/>
       <c r="BA49" s="2"/>
-      <c r="BB49" s="3"/>
-    </row>
-    <row r="50" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="3"/>
+    </row>
+    <row r="50" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -3618,9 +3909,13 @@
       <c r="AY50" s="2"/>
       <c r="AZ50" s="2"/>
       <c r="BA50" s="2"/>
-      <c r="BB50" s="3"/>
-    </row>
-    <row r="51" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="2"/>
+      <c r="BE50" s="2"/>
+      <c r="BF50" s="3"/>
+    </row>
+    <row r="51" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -3672,9 +3967,13 @@
       <c r="AY51" s="2"/>
       <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
-      <c r="BB51" s="3"/>
-    </row>
-    <row r="52" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="2"/>
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="3"/>
+    </row>
+    <row r="52" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -3726,9 +4025,13 @@
       <c r="AY52" s="2"/>
       <c r="AZ52" s="2"/>
       <c r="BA52" s="2"/>
-      <c r="BB52" s="3"/>
-    </row>
-    <row r="53" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="2"/>
+      <c r="BD52" s="2"/>
+      <c r="BE52" s="2"/>
+      <c r="BF52" s="3"/>
+    </row>
+    <row r="53" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -3780,9 +4083,13 @@
       <c r="AY53" s="2"/>
       <c r="AZ53" s="2"/>
       <c r="BA53" s="2"/>
-      <c r="BB53" s="3"/>
-    </row>
-    <row r="54" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="2"/>
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="3"/>
+    </row>
+    <row r="54" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -3834,9 +4141,13 @@
       <c r="AY54" s="2"/>
       <c r="AZ54" s="2"/>
       <c r="BA54" s="2"/>
-      <c r="BB54" s="3"/>
-    </row>
-    <row r="55" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="2"/>
+      <c r="BD54" s="2"/>
+      <c r="BE54" s="2"/>
+      <c r="BF54" s="3"/>
+    </row>
+    <row r="55" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -3888,9 +4199,13 @@
       <c r="AY55" s="2"/>
       <c r="AZ55" s="2"/>
       <c r="BA55" s="2"/>
-      <c r="BB55" s="3"/>
-    </row>
-    <row r="56" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB55" s="2"/>
+      <c r="BC55" s="2"/>
+      <c r="BD55" s="2"/>
+      <c r="BE55" s="2"/>
+      <c r="BF55" s="3"/>
+    </row>
+    <row r="56" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -3942,9 +4257,13 @@
       <c r="AY56" s="2"/>
       <c r="AZ56" s="2"/>
       <c r="BA56" s="2"/>
-      <c r="BB56" s="3"/>
-    </row>
-    <row r="57" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB56" s="2"/>
+      <c r="BC56" s="2"/>
+      <c r="BD56" s="2"/>
+      <c r="BE56" s="2"/>
+      <c r="BF56" s="3"/>
+    </row>
+    <row r="57" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -3996,9 +4315,13 @@
       <c r="AY57" s="2"/>
       <c r="AZ57" s="2"/>
       <c r="BA57" s="2"/>
-      <c r="BB57" s="3"/>
-    </row>
-    <row r="58" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB57" s="2"/>
+      <c r="BC57" s="2"/>
+      <c r="BD57" s="2"/>
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="3"/>
+    </row>
+    <row r="58" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4050,9 +4373,13 @@
       <c r="AY58" s="2"/>
       <c r="AZ58" s="2"/>
       <c r="BA58" s="2"/>
-      <c r="BB58" s="3"/>
-    </row>
-    <row r="59" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="2"/>
+      <c r="BD58" s="2"/>
+      <c r="BE58" s="2"/>
+      <c r="BF58" s="3"/>
+    </row>
+    <row r="59" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -4104,9 +4431,13 @@
       <c r="AY59" s="2"/>
       <c r="AZ59" s="2"/>
       <c r="BA59" s="2"/>
-      <c r="BB59" s="3"/>
-    </row>
-    <row r="60" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="2"/>
+      <c r="BD59" s="2"/>
+      <c r="BE59" s="2"/>
+      <c r="BF59" s="3"/>
+    </row>
+    <row r="60" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4158,9 +4489,13 @@
       <c r="AY60" s="2"/>
       <c r="AZ60" s="2"/>
       <c r="BA60" s="2"/>
-      <c r="BB60" s="3"/>
-    </row>
-    <row r="61" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB60" s="2"/>
+      <c r="BC60" s="2"/>
+      <c r="BD60" s="2"/>
+      <c r="BE60" s="2"/>
+      <c r="BF60" s="3"/>
+    </row>
+    <row r="61" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -4212,9 +4547,13 @@
       <c r="AY61" s="2"/>
       <c r="AZ61" s="2"/>
       <c r="BA61" s="2"/>
-      <c r="BB61" s="3"/>
-    </row>
-    <row r="62" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB61" s="2"/>
+      <c r="BC61" s="2"/>
+      <c r="BD61" s="2"/>
+      <c r="BE61" s="2"/>
+      <c r="BF61" s="3"/>
+    </row>
+    <row r="62" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -4266,9 +4605,13 @@
       <c r="AY62" s="2"/>
       <c r="AZ62" s="2"/>
       <c r="BA62" s="2"/>
-      <c r="BB62" s="3"/>
-    </row>
-    <row r="63" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB62" s="2"/>
+      <c r="BC62" s="2"/>
+      <c r="BD62" s="2"/>
+      <c r="BE62" s="2"/>
+      <c r="BF62" s="3"/>
+    </row>
+    <row r="63" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -4320,9 +4663,13 @@
       <c r="AY63" s="2"/>
       <c r="AZ63" s="2"/>
       <c r="BA63" s="2"/>
-      <c r="BB63" s="3"/>
-    </row>
-    <row r="64" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB63" s="2"/>
+      <c r="BC63" s="2"/>
+      <c r="BD63" s="2"/>
+      <c r="BE63" s="2"/>
+      <c r="BF63" s="3"/>
+    </row>
+    <row r="64" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4374,9 +4721,13 @@
       <c r="AY64" s="2"/>
       <c r="AZ64" s="2"/>
       <c r="BA64" s="2"/>
-      <c r="BB64" s="3"/>
-    </row>
-    <row r="65" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB64" s="2"/>
+      <c r="BC64" s="2"/>
+      <c r="BD64" s="2"/>
+      <c r="BE64" s="2"/>
+      <c r="BF64" s="3"/>
+    </row>
+    <row r="65" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -4428,9 +4779,13 @@
       <c r="AY65" s="2"/>
       <c r="AZ65" s="2"/>
       <c r="BA65" s="2"/>
-      <c r="BB65" s="3"/>
-    </row>
-    <row r="66" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB65" s="2"/>
+      <c r="BC65" s="2"/>
+      <c r="BD65" s="2"/>
+      <c r="BE65" s="2"/>
+      <c r="BF65" s="3"/>
+    </row>
+    <row r="66" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -4482,9 +4837,13 @@
       <c r="AY66" s="2"/>
       <c r="AZ66" s="2"/>
       <c r="BA66" s="2"/>
-      <c r="BB66" s="3"/>
-    </row>
-    <row r="67" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB66" s="2"/>
+      <c r="BC66" s="2"/>
+      <c r="BD66" s="2"/>
+      <c r="BE66" s="2"/>
+      <c r="BF66" s="3"/>
+    </row>
+    <row r="67" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -4536,9 +4895,13 @@
       <c r="AY67" s="2"/>
       <c r="AZ67" s="2"/>
       <c r="BA67" s="2"/>
-      <c r="BB67" s="3"/>
-    </row>
-    <row r="68" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB67" s="2"/>
+      <c r="BC67" s="2"/>
+      <c r="BD67" s="2"/>
+      <c r="BE67" s="2"/>
+      <c r="BF67" s="3"/>
+    </row>
+    <row r="68" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -4590,9 +4953,13 @@
       <c r="AY68" s="2"/>
       <c r="AZ68" s="2"/>
       <c r="BA68" s="2"/>
-      <c r="BB68" s="3"/>
-    </row>
-    <row r="69" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB68" s="2"/>
+      <c r="BC68" s="2"/>
+      <c r="BD68" s="2"/>
+      <c r="BE68" s="2"/>
+      <c r="BF68" s="3"/>
+    </row>
+    <row r="69" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -4644,9 +5011,13 @@
       <c r="AY69" s="2"/>
       <c r="AZ69" s="2"/>
       <c r="BA69" s="2"/>
-      <c r="BB69" s="3"/>
-    </row>
-    <row r="70" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB69" s="2"/>
+      <c r="BC69" s="2"/>
+      <c r="BD69" s="2"/>
+      <c r="BE69" s="2"/>
+      <c r="BF69" s="3"/>
+    </row>
+    <row r="70" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -4698,9 +5069,13 @@
       <c r="AY70" s="2"/>
       <c r="AZ70" s="2"/>
       <c r="BA70" s="2"/>
-      <c r="BB70" s="3"/>
-    </row>
-    <row r="71" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB70" s="2"/>
+      <c r="BC70" s="2"/>
+      <c r="BD70" s="2"/>
+      <c r="BE70" s="2"/>
+      <c r="BF70" s="3"/>
+    </row>
+    <row r="71" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -4752,9 +5127,13 @@
       <c r="AY71" s="2"/>
       <c r="AZ71" s="2"/>
       <c r="BA71" s="2"/>
-      <c r="BB71" s="3"/>
-    </row>
-    <row r="72" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB71" s="2"/>
+      <c r="BC71" s="2"/>
+      <c r="BD71" s="2"/>
+      <c r="BE71" s="2"/>
+      <c r="BF71" s="3"/>
+    </row>
+    <row r="72" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -4806,9 +5185,13 @@
       <c r="AY72" s="2"/>
       <c r="AZ72" s="2"/>
       <c r="BA72" s="2"/>
-      <c r="BB72" s="3"/>
-    </row>
-    <row r="73" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB72" s="2"/>
+      <c r="BC72" s="2"/>
+      <c r="BD72" s="2"/>
+      <c r="BE72" s="2"/>
+      <c r="BF72" s="3"/>
+    </row>
+    <row r="73" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -4860,9 +5243,13 @@
       <c r="AY73" s="2"/>
       <c r="AZ73" s="2"/>
       <c r="BA73" s="2"/>
-      <c r="BB73" s="3"/>
-    </row>
-    <row r="74" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB73" s="2"/>
+      <c r="BC73" s="2"/>
+      <c r="BD73" s="2"/>
+      <c r="BE73" s="2"/>
+      <c r="BF73" s="3"/>
+    </row>
+    <row r="74" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -4914,9 +5301,13 @@
       <c r="AY74" s="2"/>
       <c r="AZ74" s="2"/>
       <c r="BA74" s="2"/>
-      <c r="BB74" s="3"/>
-    </row>
-    <row r="75" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB74" s="2"/>
+      <c r="BC74" s="2"/>
+      <c r="BD74" s="2"/>
+      <c r="BE74" s="2"/>
+      <c r="BF74" s="3"/>
+    </row>
+    <row r="75" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -4968,9 +5359,13 @@
       <c r="AY75" s="2"/>
       <c r="AZ75" s="2"/>
       <c r="BA75" s="2"/>
-      <c r="BB75" s="3"/>
-    </row>
-    <row r="76" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB75" s="2"/>
+      <c r="BC75" s="2"/>
+      <c r="BD75" s="2"/>
+      <c r="BE75" s="2"/>
+      <c r="BF75" s="3"/>
+    </row>
+    <row r="76" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5022,9 +5417,13 @@
       <c r="AY76" s="2"/>
       <c r="AZ76" s="2"/>
       <c r="BA76" s="2"/>
-      <c r="BB76" s="3"/>
-    </row>
-    <row r="77" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB76" s="2"/>
+      <c r="BC76" s="2"/>
+      <c r="BD76" s="2"/>
+      <c r="BE76" s="2"/>
+      <c r="BF76" s="3"/>
+    </row>
+    <row r="77" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5076,9 +5475,13 @@
       <c r="AY77" s="2"/>
       <c r="AZ77" s="2"/>
       <c r="BA77" s="2"/>
-      <c r="BB77" s="3"/>
-    </row>
-    <row r="78" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB77" s="2"/>
+      <c r="BC77" s="2"/>
+      <c r="BD77" s="2"/>
+      <c r="BE77" s="2"/>
+      <c r="BF77" s="3"/>
+    </row>
+    <row r="78" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5130,9 +5533,13 @@
       <c r="AY78" s="2"/>
       <c r="AZ78" s="2"/>
       <c r="BA78" s="2"/>
-      <c r="BB78" s="3"/>
-    </row>
-    <row r="79" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB78" s="2"/>
+      <c r="BC78" s="2"/>
+      <c r="BD78" s="2"/>
+      <c r="BE78" s="2"/>
+      <c r="BF78" s="3"/>
+    </row>
+    <row r="79" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5184,9 +5591,13 @@
       <c r="AY79" s="2"/>
       <c r="AZ79" s="2"/>
       <c r="BA79" s="2"/>
-      <c r="BB79" s="3"/>
-    </row>
-    <row r="80" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB79" s="2"/>
+      <c r="BC79" s="2"/>
+      <c r="BD79" s="2"/>
+      <c r="BE79" s="2"/>
+      <c r="BF79" s="3"/>
+    </row>
+    <row r="80" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5238,9 +5649,13 @@
       <c r="AY80" s="2"/>
       <c r="AZ80" s="2"/>
       <c r="BA80" s="2"/>
-      <c r="BB80" s="3"/>
-    </row>
-    <row r="81" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB80" s="2"/>
+      <c r="BC80" s="2"/>
+      <c r="BD80" s="2"/>
+      <c r="BE80" s="2"/>
+      <c r="BF80" s="3"/>
+    </row>
+    <row r="81" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5292,9 +5707,13 @@
       <c r="AY81" s="2"/>
       <c r="AZ81" s="2"/>
       <c r="BA81" s="2"/>
-      <c r="BB81" s="3"/>
-    </row>
-    <row r="82" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB81" s="2"/>
+      <c r="BC81" s="2"/>
+      <c r="BD81" s="2"/>
+      <c r="BE81" s="2"/>
+      <c r="BF81" s="3"/>
+    </row>
+    <row r="82" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5346,9 +5765,13 @@
       <c r="AY82" s="2"/>
       <c r="AZ82" s="2"/>
       <c r="BA82" s="2"/>
-      <c r="BB82" s="3"/>
-    </row>
-    <row r="83" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB82" s="2"/>
+      <c r="BC82" s="2"/>
+      <c r="BD82" s="2"/>
+      <c r="BE82" s="2"/>
+      <c r="BF82" s="3"/>
+    </row>
+    <row r="83" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5400,9 +5823,13 @@
       <c r="AY83" s="2"/>
       <c r="AZ83" s="2"/>
       <c r="BA83" s="2"/>
-      <c r="BB83" s="3"/>
-    </row>
-    <row r="84" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB83" s="2"/>
+      <c r="BC83" s="2"/>
+      <c r="BD83" s="2"/>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="3"/>
+    </row>
+    <row r="84" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5454,9 +5881,13 @@
       <c r="AY84" s="2"/>
       <c r="AZ84" s="2"/>
       <c r="BA84" s="2"/>
-      <c r="BB84" s="3"/>
-    </row>
-    <row r="85" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB84" s="2"/>
+      <c r="BC84" s="2"/>
+      <c r="BD84" s="2"/>
+      <c r="BE84" s="2"/>
+      <c r="BF84" s="3"/>
+    </row>
+    <row r="85" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5508,9 +5939,13 @@
       <c r="AY85" s="2"/>
       <c r="AZ85" s="2"/>
       <c r="BA85" s="2"/>
-      <c r="BB85" s="3"/>
-    </row>
-    <row r="86" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB85" s="2"/>
+      <c r="BC85" s="2"/>
+      <c r="BD85" s="2"/>
+      <c r="BE85" s="2"/>
+      <c r="BF85" s="3"/>
+    </row>
+    <row r="86" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5562,9 +5997,13 @@
       <c r="AY86" s="2"/>
       <c r="AZ86" s="2"/>
       <c r="BA86" s="2"/>
-      <c r="BB86" s="3"/>
-    </row>
-    <row r="87" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB86" s="2"/>
+      <c r="BC86" s="2"/>
+      <c r="BD86" s="2"/>
+      <c r="BE86" s="2"/>
+      <c r="BF86" s="3"/>
+    </row>
+    <row r="87" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5616,9 +6055,13 @@
       <c r="AY87" s="2"/>
       <c r="AZ87" s="2"/>
       <c r="BA87" s="2"/>
-      <c r="BB87" s="3"/>
-    </row>
-    <row r="88" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB87" s="2"/>
+      <c r="BC87" s="2"/>
+      <c r="BD87" s="2"/>
+      <c r="BE87" s="2"/>
+      <c r="BF87" s="3"/>
+    </row>
+    <row r="88" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5670,9 +6113,13 @@
       <c r="AY88" s="2"/>
       <c r="AZ88" s="2"/>
       <c r="BA88" s="2"/>
-      <c r="BB88" s="3"/>
-    </row>
-    <row r="89" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB88" s="2"/>
+      <c r="BC88" s="2"/>
+      <c r="BD88" s="2"/>
+      <c r="BE88" s="2"/>
+      <c r="BF88" s="3"/>
+    </row>
+    <row r="89" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5724,9 +6171,13 @@
       <c r="AY89" s="2"/>
       <c r="AZ89" s="2"/>
       <c r="BA89" s="2"/>
-      <c r="BB89" s="3"/>
-    </row>
-    <row r="90" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB89" s="2"/>
+      <c r="BC89" s="2"/>
+      <c r="BD89" s="2"/>
+      <c r="BE89" s="2"/>
+      <c r="BF89" s="3"/>
+    </row>
+    <row r="90" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5778,9 +6229,13 @@
       <c r="AY90" s="2"/>
       <c r="AZ90" s="2"/>
       <c r="BA90" s="2"/>
-      <c r="BB90" s="3"/>
-    </row>
-    <row r="91" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB90" s="2"/>
+      <c r="BC90" s="2"/>
+      <c r="BD90" s="2"/>
+      <c r="BE90" s="2"/>
+      <c r="BF90" s="3"/>
+    </row>
+    <row r="91" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5832,9 +6287,13 @@
       <c r="AY91" s="2"/>
       <c r="AZ91" s="2"/>
       <c r="BA91" s="2"/>
-      <c r="BB91" s="3"/>
-    </row>
-    <row r="92" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB91" s="2"/>
+      <c r="BC91" s="2"/>
+      <c r="BD91" s="2"/>
+      <c r="BE91" s="2"/>
+      <c r="BF91" s="3"/>
+    </row>
+    <row r="92" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5886,9 +6345,13 @@
       <c r="AY92" s="2"/>
       <c r="AZ92" s="2"/>
       <c r="BA92" s="2"/>
-      <c r="BB92" s="3"/>
-    </row>
-    <row r="93" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB92" s="2"/>
+      <c r="BC92" s="2"/>
+      <c r="BD92" s="2"/>
+      <c r="BE92" s="2"/>
+      <c r="BF92" s="3"/>
+    </row>
+    <row r="93" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5940,9 +6403,13 @@
       <c r="AY93" s="2"/>
       <c r="AZ93" s="2"/>
       <c r="BA93" s="2"/>
-      <c r="BB93" s="3"/>
-    </row>
-    <row r="94" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB93" s="2"/>
+      <c r="BC93" s="2"/>
+      <c r="BD93" s="2"/>
+      <c r="BE93" s="2"/>
+      <c r="BF93" s="3"/>
+    </row>
+    <row r="94" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5994,9 +6461,13 @@
       <c r="AY94" s="2"/>
       <c r="AZ94" s="2"/>
       <c r="BA94" s="2"/>
-      <c r="BB94" s="3"/>
-    </row>
-    <row r="95" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB94" s="2"/>
+      <c r="BC94" s="2"/>
+      <c r="BD94" s="2"/>
+      <c r="BE94" s="2"/>
+      <c r="BF94" s="3"/>
+    </row>
+    <row r="95" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6048,9 +6519,13 @@
       <c r="AY95" s="2"/>
       <c r="AZ95" s="2"/>
       <c r="BA95" s="2"/>
-      <c r="BB95" s="3"/>
-    </row>
-    <row r="96" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB95" s="2"/>
+      <c r="BC95" s="2"/>
+      <c r="BD95" s="2"/>
+      <c r="BE95" s="2"/>
+      <c r="BF95" s="3"/>
+    </row>
+    <row r="96" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -6102,9 +6577,13 @@
       <c r="AY96" s="2"/>
       <c r="AZ96" s="2"/>
       <c r="BA96" s="2"/>
-      <c r="BB96" s="3"/>
-    </row>
-    <row r="97" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB96" s="2"/>
+      <c r="BC96" s="2"/>
+      <c r="BD96" s="2"/>
+      <c r="BE96" s="2"/>
+      <c r="BF96" s="3"/>
+    </row>
+    <row r="97" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6156,9 +6635,13 @@
       <c r="AY97" s="2"/>
       <c r="AZ97" s="2"/>
       <c r="BA97" s="2"/>
-      <c r="BB97" s="3"/>
-    </row>
-    <row r="98" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB97" s="2"/>
+      <c r="BC97" s="2"/>
+      <c r="BD97" s="2"/>
+      <c r="BE97" s="2"/>
+      <c r="BF97" s="3"/>
+    </row>
+    <row r="98" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6210,9 +6693,13 @@
       <c r="AY98" s="2"/>
       <c r="AZ98" s="2"/>
       <c r="BA98" s="2"/>
-      <c r="BB98" s="3"/>
-    </row>
-    <row r="99" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB98" s="2"/>
+      <c r="BC98" s="2"/>
+      <c r="BD98" s="2"/>
+      <c r="BE98" s="2"/>
+      <c r="BF98" s="3"/>
+    </row>
+    <row r="99" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -6264,9 +6751,13 @@
       <c r="AY99" s="2"/>
       <c r="AZ99" s="2"/>
       <c r="BA99" s="2"/>
-      <c r="BB99" s="3"/>
-    </row>
-    <row r="100" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB99" s="2"/>
+      <c r="BC99" s="2"/>
+      <c r="BD99" s="2"/>
+      <c r="BE99" s="2"/>
+      <c r="BF99" s="3"/>
+    </row>
+    <row r="100" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -6318,9 +6809,13 @@
       <c r="AY100" s="2"/>
       <c r="AZ100" s="2"/>
       <c r="BA100" s="2"/>
-      <c r="BB100" s="3"/>
-    </row>
-    <row r="101" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB100" s="2"/>
+      <c r="BC100" s="2"/>
+      <c r="BD100" s="2"/>
+      <c r="BE100" s="2"/>
+      <c r="BF100" s="3"/>
+    </row>
+    <row r="101" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6372,9 +6867,13 @@
       <c r="AY101" s="2"/>
       <c r="AZ101" s="2"/>
       <c r="BA101" s="2"/>
-      <c r="BB101" s="3"/>
-    </row>
-    <row r="102" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB101" s="2"/>
+      <c r="BC101" s="2"/>
+      <c r="BD101" s="2"/>
+      <c r="BE101" s="2"/>
+      <c r="BF101" s="3"/>
+    </row>
+    <row r="102" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6426,9 +6925,13 @@
       <c r="AY102" s="2"/>
       <c r="AZ102" s="2"/>
       <c r="BA102" s="2"/>
-      <c r="BB102" s="3"/>
-    </row>
-    <row r="103" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB102" s="2"/>
+      <c r="BC102" s="2"/>
+      <c r="BD102" s="2"/>
+      <c r="BE102" s="2"/>
+      <c r="BF102" s="3"/>
+    </row>
+    <row r="103" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6480,9 +6983,13 @@
       <c r="AY103" s="2"/>
       <c r="AZ103" s="2"/>
       <c r="BA103" s="2"/>
-      <c r="BB103" s="3"/>
-    </row>
-    <row r="104" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB103" s="2"/>
+      <c r="BC103" s="2"/>
+      <c r="BD103" s="2"/>
+      <c r="BE103" s="2"/>
+      <c r="BF103" s="3"/>
+    </row>
+    <row r="104" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6534,9 +7041,13 @@
       <c r="AY104" s="2"/>
       <c r="AZ104" s="2"/>
       <c r="BA104" s="2"/>
-      <c r="BB104" s="3"/>
-    </row>
-    <row r="105" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB104" s="2"/>
+      <c r="BC104" s="2"/>
+      <c r="BD104" s="2"/>
+      <c r="BE104" s="2"/>
+      <c r="BF104" s="3"/>
+    </row>
+    <row r="105" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6588,9 +7099,13 @@
       <c r="AY105" s="2"/>
       <c r="AZ105" s="2"/>
       <c r="BA105" s="2"/>
-      <c r="BB105" s="3"/>
-    </row>
-    <row r="106" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB105" s="2"/>
+      <c r="BC105" s="2"/>
+      <c r="BD105" s="2"/>
+      <c r="BE105" s="2"/>
+      <c r="BF105" s="3"/>
+    </row>
+    <row r="106" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6642,9 +7157,13 @@
       <c r="AY106" s="2"/>
       <c r="AZ106" s="2"/>
       <c r="BA106" s="2"/>
-      <c r="BB106" s="3"/>
-    </row>
-    <row r="107" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB106" s="2"/>
+      <c r="BC106" s="2"/>
+      <c r="BD106" s="2"/>
+      <c r="BE106" s="2"/>
+      <c r="BF106" s="3"/>
+    </row>
+    <row r="107" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6696,9 +7215,13 @@
       <c r="AY107" s="2"/>
       <c r="AZ107" s="2"/>
       <c r="BA107" s="2"/>
-      <c r="BB107" s="3"/>
-    </row>
-    <row r="108" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB107" s="2"/>
+      <c r="BC107" s="2"/>
+      <c r="BD107" s="2"/>
+      <c r="BE107" s="2"/>
+      <c r="BF107" s="3"/>
+    </row>
+    <row r="108" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -6750,9 +7273,13 @@
       <c r="AY108" s="2"/>
       <c r="AZ108" s="2"/>
       <c r="BA108" s="2"/>
-      <c r="BB108" s="3"/>
-    </row>
-    <row r="109" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB108" s="2"/>
+      <c r="BC108" s="2"/>
+      <c r="BD108" s="2"/>
+      <c r="BE108" s="2"/>
+      <c r="BF108" s="3"/>
+    </row>
+    <row r="109" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6804,9 +7331,13 @@
       <c r="AY109" s="2"/>
       <c r="AZ109" s="2"/>
       <c r="BA109" s="2"/>
-      <c r="BB109" s="3"/>
-    </row>
-    <row r="110" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB109" s="2"/>
+      <c r="BC109" s="2"/>
+      <c r="BD109" s="2"/>
+      <c r="BE109" s="2"/>
+      <c r="BF109" s="3"/>
+    </row>
+    <row r="110" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6858,9 +7389,13 @@
       <c r="AY110" s="2"/>
       <c r="AZ110" s="2"/>
       <c r="BA110" s="2"/>
-      <c r="BB110" s="3"/>
-    </row>
-    <row r="111" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB110" s="2"/>
+      <c r="BC110" s="2"/>
+      <c r="BD110" s="2"/>
+      <c r="BE110" s="2"/>
+      <c r="BF110" s="3"/>
+    </row>
+    <row r="111" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6912,9 +7447,13 @@
       <c r="AY111" s="2"/>
       <c r="AZ111" s="2"/>
       <c r="BA111" s="2"/>
-      <c r="BB111" s="3"/>
-    </row>
-    <row r="112" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB111" s="2"/>
+      <c r="BC111" s="2"/>
+      <c r="BD111" s="2"/>
+      <c r="BE111" s="2"/>
+      <c r="BF111" s="3"/>
+    </row>
+    <row r="112" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6966,9 +7505,13 @@
       <c r="AY112" s="2"/>
       <c r="AZ112" s="2"/>
       <c r="BA112" s="2"/>
-      <c r="BB112" s="3"/>
-    </row>
-    <row r="113" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB112" s="2"/>
+      <c r="BC112" s="2"/>
+      <c r="BD112" s="2"/>
+      <c r="BE112" s="2"/>
+      <c r="BF112" s="3"/>
+    </row>
+    <row r="113" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -7020,9 +7563,13 @@
       <c r="AY113" s="2"/>
       <c r="AZ113" s="2"/>
       <c r="BA113" s="2"/>
-      <c r="BB113" s="3"/>
-    </row>
-    <row r="114" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB113" s="2"/>
+      <c r="BC113" s="2"/>
+      <c r="BD113" s="2"/>
+      <c r="BE113" s="2"/>
+      <c r="BF113" s="3"/>
+    </row>
+    <row r="114" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -7074,9 +7621,13 @@
       <c r="AY114" s="2"/>
       <c r="AZ114" s="2"/>
       <c r="BA114" s="2"/>
-      <c r="BB114" s="3"/>
-    </row>
-    <row r="115" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB114" s="2"/>
+      <c r="BC114" s="2"/>
+      <c r="BD114" s="2"/>
+      <c r="BE114" s="2"/>
+      <c r="BF114" s="3"/>
+    </row>
+    <row r="115" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -7128,9 +7679,13 @@
       <c r="AY115" s="2"/>
       <c r="AZ115" s="2"/>
       <c r="BA115" s="2"/>
-      <c r="BB115" s="3"/>
-    </row>
-    <row r="116" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB115" s="2"/>
+      <c r="BC115" s="2"/>
+      <c r="BD115" s="2"/>
+      <c r="BE115" s="2"/>
+      <c r="BF115" s="3"/>
+    </row>
+    <row r="116" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -7182,9 +7737,13 @@
       <c r="AY116" s="2"/>
       <c r="AZ116" s="2"/>
       <c r="BA116" s="2"/>
-      <c r="BB116" s="3"/>
-    </row>
-    <row r="117" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB116" s="2"/>
+      <c r="BC116" s="2"/>
+      <c r="BD116" s="2"/>
+      <c r="BE116" s="2"/>
+      <c r="BF116" s="3"/>
+    </row>
+    <row r="117" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -7236,9 +7795,13 @@
       <c r="AY117" s="2"/>
       <c r="AZ117" s="2"/>
       <c r="BA117" s="2"/>
-      <c r="BB117" s="3"/>
-    </row>
-    <row r="118" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB117" s="2"/>
+      <c r="BC117" s="2"/>
+      <c r="BD117" s="2"/>
+      <c r="BE117" s="2"/>
+      <c r="BF117" s="3"/>
+    </row>
+    <row r="118" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -7290,9 +7853,13 @@
       <c r="AY118" s="2"/>
       <c r="AZ118" s="2"/>
       <c r="BA118" s="2"/>
-      <c r="BB118" s="3"/>
-    </row>
-    <row r="119" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB118" s="2"/>
+      <c r="BC118" s="2"/>
+      <c r="BD118" s="2"/>
+      <c r="BE118" s="2"/>
+      <c r="BF118" s="3"/>
+    </row>
+    <row r="119" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -7344,9 +7911,13 @@
       <c r="AY119" s="2"/>
       <c r="AZ119" s="2"/>
       <c r="BA119" s="2"/>
-      <c r="BB119" s="3"/>
-    </row>
-    <row r="120" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB119" s="2"/>
+      <c r="BC119" s="2"/>
+      <c r="BD119" s="2"/>
+      <c r="BE119" s="2"/>
+      <c r="BF119" s="3"/>
+    </row>
+    <row r="120" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -7398,9 +7969,13 @@
       <c r="AY120" s="2"/>
       <c r="AZ120" s="2"/>
       <c r="BA120" s="2"/>
-      <c r="BB120" s="3"/>
-    </row>
-    <row r="121" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB120" s="2"/>
+      <c r="BC120" s="2"/>
+      <c r="BD120" s="2"/>
+      <c r="BE120" s="2"/>
+      <c r="BF120" s="3"/>
+    </row>
+    <row r="121" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -7452,9 +8027,13 @@
       <c r="AY121" s="2"/>
       <c r="AZ121" s="2"/>
       <c r="BA121" s="2"/>
-      <c r="BB121" s="3"/>
-    </row>
-    <row r="122" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB121" s="2"/>
+      <c r="BC121" s="2"/>
+      <c r="BD121" s="2"/>
+      <c r="BE121" s="2"/>
+      <c r="BF121" s="3"/>
+    </row>
+    <row r="122" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -7506,9 +8085,13 @@
       <c r="AY122" s="2"/>
       <c r="AZ122" s="2"/>
       <c r="BA122" s="2"/>
-      <c r="BB122" s="3"/>
-    </row>
-    <row r="123" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB122" s="2"/>
+      <c r="BC122" s="2"/>
+      <c r="BD122" s="2"/>
+      <c r="BE122" s="2"/>
+      <c r="BF122" s="3"/>
+    </row>
+    <row r="123" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -7560,9 +8143,13 @@
       <c r="AY123" s="2"/>
       <c r="AZ123" s="2"/>
       <c r="BA123" s="2"/>
-      <c r="BB123" s="3"/>
-    </row>
-    <row r="124" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB123" s="2"/>
+      <c r="BC123" s="2"/>
+      <c r="BD123" s="2"/>
+      <c r="BE123" s="2"/>
+      <c r="BF123" s="3"/>
+    </row>
+    <row r="124" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -7614,9 +8201,13 @@
       <c r="AY124" s="2"/>
       <c r="AZ124" s="2"/>
       <c r="BA124" s="2"/>
-      <c r="BB124" s="3"/>
-    </row>
-    <row r="125" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB124" s="2"/>
+      <c r="BC124" s="2"/>
+      <c r="BD124" s="2"/>
+      <c r="BE124" s="2"/>
+      <c r="BF124" s="3"/>
+    </row>
+    <row r="125" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -7668,9 +8259,13 @@
       <c r="AY125" s="2"/>
       <c r="AZ125" s="2"/>
       <c r="BA125" s="2"/>
-      <c r="BB125" s="3"/>
-    </row>
-    <row r="126" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB125" s="2"/>
+      <c r="BC125" s="2"/>
+      <c r="BD125" s="2"/>
+      <c r="BE125" s="2"/>
+      <c r="BF125" s="3"/>
+    </row>
+    <row r="126" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -7722,9 +8317,13 @@
       <c r="AY126" s="2"/>
       <c r="AZ126" s="2"/>
       <c r="BA126" s="2"/>
-      <c r="BB126" s="3"/>
-    </row>
-    <row r="127" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB126" s="2"/>
+      <c r="BC126" s="2"/>
+      <c r="BD126" s="2"/>
+      <c r="BE126" s="2"/>
+      <c r="BF126" s="3"/>
+    </row>
+    <row r="127" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -7776,9 +8375,13 @@
       <c r="AY127" s="2"/>
       <c r="AZ127" s="2"/>
       <c r="BA127" s="2"/>
-      <c r="BB127" s="3"/>
-    </row>
-    <row r="128" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB127" s="2"/>
+      <c r="BC127" s="2"/>
+      <c r="BD127" s="2"/>
+      <c r="BE127" s="2"/>
+      <c r="BF127" s="3"/>
+    </row>
+    <row r="128" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -7830,9 +8433,13 @@
       <c r="AY128" s="2"/>
       <c r="AZ128" s="2"/>
       <c r="BA128" s="2"/>
-      <c r="BB128" s="3"/>
-    </row>
-    <row r="129" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB128" s="2"/>
+      <c r="BC128" s="2"/>
+      <c r="BD128" s="2"/>
+      <c r="BE128" s="2"/>
+      <c r="BF128" s="3"/>
+    </row>
+    <row r="129" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -7884,9 +8491,13 @@
       <c r="AY129" s="2"/>
       <c r="AZ129" s="2"/>
       <c r="BA129" s="2"/>
-      <c r="BB129" s="3"/>
-    </row>
-    <row r="130" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB129" s="2"/>
+      <c r="BC129" s="2"/>
+      <c r="BD129" s="2"/>
+      <c r="BE129" s="2"/>
+      <c r="BF129" s="3"/>
+    </row>
+    <row r="130" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -7938,9 +8549,13 @@
       <c r="AY130" s="2"/>
       <c r="AZ130" s="2"/>
       <c r="BA130" s="2"/>
-      <c r="BB130" s="3"/>
-    </row>
-    <row r="131" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB130" s="2"/>
+      <c r="BC130" s="2"/>
+      <c r="BD130" s="2"/>
+      <c r="BE130" s="2"/>
+      <c r="BF130" s="3"/>
+    </row>
+    <row r="131" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -7992,9 +8607,13 @@
       <c r="AY131" s="2"/>
       <c r="AZ131" s="2"/>
       <c r="BA131" s="2"/>
-      <c r="BB131" s="3"/>
-    </row>
-    <row r="132" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB131" s="2"/>
+      <c r="BC131" s="2"/>
+      <c r="BD131" s="2"/>
+      <c r="BE131" s="2"/>
+      <c r="BF131" s="3"/>
+    </row>
+    <row r="132" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -8046,9 +8665,13 @@
       <c r="AY132" s="2"/>
       <c r="AZ132" s="2"/>
       <c r="BA132" s="2"/>
-      <c r="BB132" s="3"/>
-    </row>
-    <row r="133" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB132" s="2"/>
+      <c r="BC132" s="2"/>
+      <c r="BD132" s="2"/>
+      <c r="BE132" s="2"/>
+      <c r="BF132" s="3"/>
+    </row>
+    <row r="133" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -8100,9 +8723,13 @@
       <c r="AY133" s="2"/>
       <c r="AZ133" s="2"/>
       <c r="BA133" s="2"/>
-      <c r="BB133" s="3"/>
-    </row>
-    <row r="134" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB133" s="2"/>
+      <c r="BC133" s="2"/>
+      <c r="BD133" s="2"/>
+      <c r="BE133" s="2"/>
+      <c r="BF133" s="3"/>
+    </row>
+    <row r="134" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8154,9 +8781,13 @@
       <c r="AY134" s="2"/>
       <c r="AZ134" s="2"/>
       <c r="BA134" s="2"/>
-      <c r="BB134" s="3"/>
-    </row>
-    <row r="135" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB134" s="2"/>
+      <c r="BC134" s="2"/>
+      <c r="BD134" s="2"/>
+      <c r="BE134" s="2"/>
+      <c r="BF134" s="3"/>
+    </row>
+    <row r="135" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8208,9 +8839,13 @@
       <c r="AY135" s="2"/>
       <c r="AZ135" s="2"/>
       <c r="BA135" s="2"/>
-      <c r="BB135" s="3"/>
-    </row>
-    <row r="136" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB135" s="2"/>
+      <c r="BC135" s="2"/>
+      <c r="BD135" s="2"/>
+      <c r="BE135" s="2"/>
+      <c r="BF135" s="3"/>
+    </row>
+    <row r="136" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8262,9 +8897,13 @@
       <c r="AY136" s="2"/>
       <c r="AZ136" s="2"/>
       <c r="BA136" s="2"/>
-      <c r="BB136" s="3"/>
-    </row>
-    <row r="137" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB136" s="2"/>
+      <c r="BC136" s="2"/>
+      <c r="BD136" s="2"/>
+      <c r="BE136" s="2"/>
+      <c r="BF136" s="3"/>
+    </row>
+    <row r="137" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -8316,9 +8955,13 @@
       <c r="AY137" s="2"/>
       <c r="AZ137" s="2"/>
       <c r="BA137" s="2"/>
-      <c r="BB137" s="3"/>
-    </row>
-    <row r="138" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB137" s="2"/>
+      <c r="BC137" s="2"/>
+      <c r="BD137" s="2"/>
+      <c r="BE137" s="2"/>
+      <c r="BF137" s="3"/>
+    </row>
+    <row r="138" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8370,9 +9013,13 @@
       <c r="AY138" s="2"/>
       <c r="AZ138" s="2"/>
       <c r="BA138" s="2"/>
-      <c r="BB138" s="3"/>
-    </row>
-    <row r="139" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB138" s="2"/>
+      <c r="BC138" s="2"/>
+      <c r="BD138" s="2"/>
+      <c r="BE138" s="2"/>
+      <c r="BF138" s="3"/>
+    </row>
+    <row r="139" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -8424,9 +9071,13 @@
       <c r="AY139" s="2"/>
       <c r="AZ139" s="2"/>
       <c r="BA139" s="2"/>
-      <c r="BB139" s="3"/>
-    </row>
-    <row r="140" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB139" s="2"/>
+      <c r="BC139" s="2"/>
+      <c r="BD139" s="2"/>
+      <c r="BE139" s="2"/>
+      <c r="BF139" s="3"/>
+    </row>
+    <row r="140" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8478,9 +9129,13 @@
       <c r="AY140" s="2"/>
       <c r="AZ140" s="2"/>
       <c r="BA140" s="2"/>
-      <c r="BB140" s="3"/>
-    </row>
-    <row r="141" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB140" s="2"/>
+      <c r="BC140" s="2"/>
+      <c r="BD140" s="2"/>
+      <c r="BE140" s="2"/>
+      <c r="BF140" s="3"/>
+    </row>
+    <row r="141" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8532,9 +9187,13 @@
       <c r="AY141" s="2"/>
       <c r="AZ141" s="2"/>
       <c r="BA141" s="2"/>
-      <c r="BB141" s="3"/>
-    </row>
-    <row r="142" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB141" s="2"/>
+      <c r="BC141" s="2"/>
+      <c r="BD141" s="2"/>
+      <c r="BE141" s="2"/>
+      <c r="BF141" s="3"/>
+    </row>
+    <row r="142" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -8586,9 +9245,13 @@
       <c r="AY142" s="2"/>
       <c r="AZ142" s="2"/>
       <c r="BA142" s="2"/>
-      <c r="BB142" s="3"/>
-    </row>
-    <row r="143" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB142" s="2"/>
+      <c r="BC142" s="2"/>
+      <c r="BD142" s="2"/>
+      <c r="BE142" s="2"/>
+      <c r="BF142" s="3"/>
+    </row>
+    <row r="143" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8640,9 +9303,13 @@
       <c r="AY143" s="2"/>
       <c r="AZ143" s="2"/>
       <c r="BA143" s="2"/>
-      <c r="BB143" s="3"/>
-    </row>
-    <row r="144" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB143" s="2"/>
+      <c r="BC143" s="2"/>
+      <c r="BD143" s="2"/>
+      <c r="BE143" s="2"/>
+      <c r="BF143" s="3"/>
+    </row>
+    <row r="144" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8694,9 +9361,13 @@
       <c r="AY144" s="2"/>
       <c r="AZ144" s="2"/>
       <c r="BA144" s="2"/>
-      <c r="BB144" s="3"/>
-    </row>
-    <row r="145" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB144" s="2"/>
+      <c r="BC144" s="2"/>
+      <c r="BD144" s="2"/>
+      <c r="BE144" s="2"/>
+      <c r="BF144" s="3"/>
+    </row>
+    <row r="145" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8748,9 +9419,13 @@
       <c r="AY145" s="2"/>
       <c r="AZ145" s="2"/>
       <c r="BA145" s="2"/>
-      <c r="BB145" s="3"/>
-    </row>
-    <row r="146" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB145" s="2"/>
+      <c r="BC145" s="2"/>
+      <c r="BD145" s="2"/>
+      <c r="BE145" s="2"/>
+      <c r="BF145" s="3"/>
+    </row>
+    <row r="146" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8802,9 +9477,13 @@
       <c r="AY146" s="2"/>
       <c r="AZ146" s="2"/>
       <c r="BA146" s="2"/>
-      <c r="BB146" s="3"/>
-    </row>
-    <row r="147" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB146" s="2"/>
+      <c r="BC146" s="2"/>
+      <c r="BD146" s="2"/>
+      <c r="BE146" s="2"/>
+      <c r="BF146" s="3"/>
+    </row>
+    <row r="147" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8856,9 +9535,13 @@
       <c r="AY147" s="2"/>
       <c r="AZ147" s="2"/>
       <c r="BA147" s="2"/>
-      <c r="BB147" s="3"/>
-    </row>
-    <row r="148" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB147" s="2"/>
+      <c r="BC147" s="2"/>
+      <c r="BD147" s="2"/>
+      <c r="BE147" s="2"/>
+      <c r="BF147" s="3"/>
+    </row>
+    <row r="148" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -8910,9 +9593,13 @@
       <c r="AY148" s="2"/>
       <c r="AZ148" s="2"/>
       <c r="BA148" s="2"/>
-      <c r="BB148" s="3"/>
-    </row>
-    <row r="149" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB148" s="2"/>
+      <c r="BC148" s="2"/>
+      <c r="BD148" s="2"/>
+      <c r="BE148" s="2"/>
+      <c r="BF148" s="3"/>
+    </row>
+    <row r="149" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8964,9 +9651,13 @@
       <c r="AY149" s="2"/>
       <c r="AZ149" s="2"/>
       <c r="BA149" s="2"/>
-      <c r="BB149" s="3"/>
-    </row>
-    <row r="150" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB149" s="2"/>
+      <c r="BC149" s="2"/>
+      <c r="BD149" s="2"/>
+      <c r="BE149" s="2"/>
+      <c r="BF149" s="3"/>
+    </row>
+    <row r="150" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -9018,9 +9709,13 @@
       <c r="AY150" s="2"/>
       <c r="AZ150" s="2"/>
       <c r="BA150" s="2"/>
-      <c r="BB150" s="3"/>
-    </row>
-    <row r="151" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB150" s="2"/>
+      <c r="BC150" s="2"/>
+      <c r="BD150" s="2"/>
+      <c r="BE150" s="2"/>
+      <c r="BF150" s="3"/>
+    </row>
+    <row r="151" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -9072,9 +9767,13 @@
       <c r="AY151" s="2"/>
       <c r="AZ151" s="2"/>
       <c r="BA151" s="2"/>
-      <c r="BB151" s="3"/>
-    </row>
-    <row r="152" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB151" s="2"/>
+      <c r="BC151" s="2"/>
+      <c r="BD151" s="2"/>
+      <c r="BE151" s="2"/>
+      <c r="BF151" s="3"/>
+    </row>
+    <row r="152" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -9126,9 +9825,13 @@
       <c r="AY152" s="2"/>
       <c r="AZ152" s="2"/>
       <c r="BA152" s="2"/>
-      <c r="BB152" s="3"/>
-    </row>
-    <row r="153" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB152" s="2"/>
+      <c r="BC152" s="2"/>
+      <c r="BD152" s="2"/>
+      <c r="BE152" s="2"/>
+      <c r="BF152" s="3"/>
+    </row>
+    <row r="153" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -9180,9 +9883,13 @@
       <c r="AY153" s="2"/>
       <c r="AZ153" s="2"/>
       <c r="BA153" s="2"/>
-      <c r="BB153" s="3"/>
-    </row>
-    <row r="154" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB153" s="2"/>
+      <c r="BC153" s="2"/>
+      <c r="BD153" s="2"/>
+      <c r="BE153" s="2"/>
+      <c r="BF153" s="3"/>
+    </row>
+    <row r="154" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -9234,9 +9941,13 @@
       <c r="AY154" s="2"/>
       <c r="AZ154" s="2"/>
       <c r="BA154" s="2"/>
-      <c r="BB154" s="3"/>
-    </row>
-    <row r="155" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB154" s="2"/>
+      <c r="BC154" s="2"/>
+      <c r="BD154" s="2"/>
+      <c r="BE154" s="2"/>
+      <c r="BF154" s="3"/>
+    </row>
+    <row r="155" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -9288,9 +9999,13 @@
       <c r="AY155" s="2"/>
       <c r="AZ155" s="2"/>
       <c r="BA155" s="2"/>
-      <c r="BB155" s="3"/>
-    </row>
-    <row r="156" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB155" s="2"/>
+      <c r="BC155" s="2"/>
+      <c r="BD155" s="2"/>
+      <c r="BE155" s="2"/>
+      <c r="BF155" s="3"/>
+    </row>
+    <row r="156" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -9342,9 +10057,13 @@
       <c r="AY156" s="2"/>
       <c r="AZ156" s="2"/>
       <c r="BA156" s="2"/>
-      <c r="BB156" s="3"/>
-    </row>
-    <row r="157" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB156" s="2"/>
+      <c r="BC156" s="2"/>
+      <c r="BD156" s="2"/>
+      <c r="BE156" s="2"/>
+      <c r="BF156" s="3"/>
+    </row>
+    <row r="157" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -9396,9 +10115,13 @@
       <c r="AY157" s="2"/>
       <c r="AZ157" s="2"/>
       <c r="BA157" s="2"/>
-      <c r="BB157" s="3"/>
-    </row>
-    <row r="158" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB157" s="2"/>
+      <c r="BC157" s="2"/>
+      <c r="BD157" s="2"/>
+      <c r="BE157" s="2"/>
+      <c r="BF157" s="3"/>
+    </row>
+    <row r="158" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -9450,9 +10173,13 @@
       <c r="AY158" s="2"/>
       <c r="AZ158" s="2"/>
       <c r="BA158" s="2"/>
-      <c r="BB158" s="3"/>
-    </row>
-    <row r="159" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB158" s="2"/>
+      <c r="BC158" s="2"/>
+      <c r="BD158" s="2"/>
+      <c r="BE158" s="2"/>
+      <c r="BF158" s="3"/>
+    </row>
+    <row r="159" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -9504,9 +10231,13 @@
       <c r="AY159" s="2"/>
       <c r="AZ159" s="2"/>
       <c r="BA159" s="2"/>
-      <c r="BB159" s="3"/>
-    </row>
-    <row r="160" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB159" s="2"/>
+      <c r="BC159" s="2"/>
+      <c r="BD159" s="2"/>
+      <c r="BE159" s="2"/>
+      <c r="BF159" s="3"/>
+    </row>
+    <row r="160" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -9558,9 +10289,13 @@
       <c r="AY160" s="2"/>
       <c r="AZ160" s="2"/>
       <c r="BA160" s="2"/>
-      <c r="BB160" s="3"/>
-    </row>
-    <row r="161" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB160" s="2"/>
+      <c r="BC160" s="2"/>
+      <c r="BD160" s="2"/>
+      <c r="BE160" s="2"/>
+      <c r="BF160" s="3"/>
+    </row>
+    <row r="161" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -9612,9 +10347,13 @@
       <c r="AY161" s="2"/>
       <c r="AZ161" s="2"/>
       <c r="BA161" s="2"/>
-      <c r="BB161" s="3"/>
-    </row>
-    <row r="162" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB161" s="2"/>
+      <c r="BC161" s="2"/>
+      <c r="BD161" s="2"/>
+      <c r="BE161" s="2"/>
+      <c r="BF161" s="3"/>
+    </row>
+    <row r="162" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -9666,9 +10405,13 @@
       <c r="AY162" s="2"/>
       <c r="AZ162" s="2"/>
       <c r="BA162" s="2"/>
-      <c r="BB162" s="3"/>
-    </row>
-    <row r="163" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB162" s="2"/>
+      <c r="BC162" s="2"/>
+      <c r="BD162" s="2"/>
+      <c r="BE162" s="2"/>
+      <c r="BF162" s="3"/>
+    </row>
+    <row r="163" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -9720,9 +10463,13 @@
       <c r="AY163" s="2"/>
       <c r="AZ163" s="2"/>
       <c r="BA163" s="2"/>
-      <c r="BB163" s="3"/>
-    </row>
-    <row r="164" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB163" s="2"/>
+      <c r="BC163" s="2"/>
+      <c r="BD163" s="2"/>
+      <c r="BE163" s="2"/>
+      <c r="BF163" s="3"/>
+    </row>
+    <row r="164" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -9774,9 +10521,13 @@
       <c r="AY164" s="2"/>
       <c r="AZ164" s="2"/>
       <c r="BA164" s="2"/>
-      <c r="BB164" s="3"/>
-    </row>
-    <row r="165" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB164" s="2"/>
+      <c r="BC164" s="2"/>
+      <c r="BD164" s="2"/>
+      <c r="BE164" s="2"/>
+      <c r="BF164" s="3"/>
+    </row>
+    <row r="165" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -9828,9 +10579,13 @@
       <c r="AY165" s="2"/>
       <c r="AZ165" s="2"/>
       <c r="BA165" s="2"/>
-      <c r="BB165" s="3"/>
-    </row>
-    <row r="166" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB165" s="2"/>
+      <c r="BC165" s="2"/>
+      <c r="BD165" s="2"/>
+      <c r="BE165" s="2"/>
+      <c r="BF165" s="3"/>
+    </row>
+    <row r="166" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -9882,9 +10637,13 @@
       <c r="AY166" s="2"/>
       <c r="AZ166" s="2"/>
       <c r="BA166" s="2"/>
-      <c r="BB166" s="3"/>
-    </row>
-    <row r="167" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB166" s="2"/>
+      <c r="BC166" s="2"/>
+      <c r="BD166" s="2"/>
+      <c r="BE166" s="2"/>
+      <c r="BF166" s="3"/>
+    </row>
+    <row r="167" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -9936,9 +10695,13 @@
       <c r="AY167" s="2"/>
       <c r="AZ167" s="2"/>
       <c r="BA167" s="2"/>
-      <c r="BB167" s="3"/>
-    </row>
-    <row r="168" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB167" s="2"/>
+      <c r="BC167" s="2"/>
+      <c r="BD167" s="2"/>
+      <c r="BE167" s="2"/>
+      <c r="BF167" s="3"/>
+    </row>
+    <row r="168" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -9990,9 +10753,13 @@
       <c r="AY168" s="2"/>
       <c r="AZ168" s="2"/>
       <c r="BA168" s="2"/>
-      <c r="BB168" s="3"/>
-    </row>
-    <row r="169" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB168" s="2"/>
+      <c r="BC168" s="2"/>
+      <c r="BD168" s="2"/>
+      <c r="BE168" s="2"/>
+      <c r="BF168" s="3"/>
+    </row>
+    <row r="169" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -10044,9 +10811,13 @@
       <c r="AY169" s="2"/>
       <c r="AZ169" s="2"/>
       <c r="BA169" s="2"/>
-      <c r="BB169" s="3"/>
-    </row>
-    <row r="170" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB169" s="2"/>
+      <c r="BC169" s="2"/>
+      <c r="BD169" s="2"/>
+      <c r="BE169" s="2"/>
+      <c r="BF169" s="3"/>
+    </row>
+    <row r="170" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -10098,9 +10869,13 @@
       <c r="AY170" s="2"/>
       <c r="AZ170" s="2"/>
       <c r="BA170" s="2"/>
-      <c r="BB170" s="3"/>
-    </row>
-    <row r="171" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB170" s="2"/>
+      <c r="BC170" s="2"/>
+      <c r="BD170" s="2"/>
+      <c r="BE170" s="2"/>
+      <c r="BF170" s="3"/>
+    </row>
+    <row r="171" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -10152,9 +10927,13 @@
       <c r="AY171" s="2"/>
       <c r="AZ171" s="2"/>
       <c r="BA171" s="2"/>
-      <c r="BB171" s="3"/>
-    </row>
-    <row r="172" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB171" s="2"/>
+      <c r="BC171" s="2"/>
+      <c r="BD171" s="2"/>
+      <c r="BE171" s="2"/>
+      <c r="BF171" s="3"/>
+    </row>
+    <row r="172" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -10206,9 +10985,13 @@
       <c r="AY172" s="2"/>
       <c r="AZ172" s="2"/>
       <c r="BA172" s="2"/>
-      <c r="BB172" s="3"/>
-    </row>
-    <row r="173" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB172" s="2"/>
+      <c r="BC172" s="2"/>
+      <c r="BD172" s="2"/>
+      <c r="BE172" s="2"/>
+      <c r="BF172" s="3"/>
+    </row>
+    <row r="173" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -10260,9 +11043,13 @@
       <c r="AY173" s="2"/>
       <c r="AZ173" s="2"/>
       <c r="BA173" s="2"/>
-      <c r="BB173" s="3"/>
-    </row>
-    <row r="174" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB173" s="2"/>
+      <c r="BC173" s="2"/>
+      <c r="BD173" s="2"/>
+      <c r="BE173" s="2"/>
+      <c r="BF173" s="3"/>
+    </row>
+    <row r="174" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -10314,9 +11101,13 @@
       <c r="AY174" s="2"/>
       <c r="AZ174" s="2"/>
       <c r="BA174" s="2"/>
-      <c r="BB174" s="3"/>
-    </row>
-    <row r="175" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB174" s="2"/>
+      <c r="BC174" s="2"/>
+      <c r="BD174" s="2"/>
+      <c r="BE174" s="2"/>
+      <c r="BF174" s="3"/>
+    </row>
+    <row r="175" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -10368,9 +11159,13 @@
       <c r="AY175" s="2"/>
       <c r="AZ175" s="2"/>
       <c r="BA175" s="2"/>
-      <c r="BB175" s="3"/>
-    </row>
-    <row r="176" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB175" s="2"/>
+      <c r="BC175" s="2"/>
+      <c r="BD175" s="2"/>
+      <c r="BE175" s="2"/>
+      <c r="BF175" s="3"/>
+    </row>
+    <row r="176" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -10422,9 +11217,13 @@
       <c r="AY176" s="2"/>
       <c r="AZ176" s="2"/>
       <c r="BA176" s="2"/>
-      <c r="BB176" s="3"/>
-    </row>
-    <row r="177" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB176" s="2"/>
+      <c r="BC176" s="2"/>
+      <c r="BD176" s="2"/>
+      <c r="BE176" s="2"/>
+      <c r="BF176" s="3"/>
+    </row>
+    <row r="177" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -10476,9 +11275,13 @@
       <c r="AY177" s="2"/>
       <c r="AZ177" s="2"/>
       <c r="BA177" s="2"/>
-      <c r="BB177" s="3"/>
-    </row>
-    <row r="178" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BB177" s="2"/>
+      <c r="BC177" s="2"/>
+      <c r="BD177" s="2"/>
+      <c r="BE177" s="2"/>
+      <c r="BF177" s="3"/>
+    </row>
+    <row r="178" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -10531,8 +11334,12 @@
       <c r="AZ178" s="3"/>
       <c r="BA178" s="3"/>
       <c r="BB178" s="3"/>
-    </row>
-    <row r="179" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC178" s="3"/>
+      <c r="BD178" s="3"/>
+      <c r="BE178" s="3"/>
+      <c r="BF178" s="3"/>
+    </row>
+    <row r="179" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -10585,8 +11392,12 @@
       <c r="AZ179" s="3"/>
       <c r="BA179" s="3"/>
       <c r="BB179" s="3"/>
-    </row>
-    <row r="180" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC179" s="3"/>
+      <c r="BD179" s="3"/>
+      <c r="BE179" s="3"/>
+      <c r="BF179" s="3"/>
+    </row>
+    <row r="180" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -10639,8 +11450,12 @@
       <c r="AZ180" s="3"/>
       <c r="BA180" s="3"/>
       <c r="BB180" s="3"/>
-    </row>
-    <row r="181" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC180" s="3"/>
+      <c r="BD180" s="3"/>
+      <c r="BE180" s="3"/>
+      <c r="BF180" s="3"/>
+    </row>
+    <row r="181" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -10693,8 +11508,12 @@
       <c r="AZ181" s="3"/>
       <c r="BA181" s="3"/>
       <c r="BB181" s="3"/>
-    </row>
-    <row r="182" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC181" s="3"/>
+      <c r="BD181" s="3"/>
+      <c r="BE181" s="3"/>
+      <c r="BF181" s="3"/>
+    </row>
+    <row r="182" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -10747,8 +11566,12 @@
       <c r="AZ182" s="3"/>
       <c r="BA182" s="3"/>
       <c r="BB182" s="3"/>
-    </row>
-    <row r="183" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC182" s="3"/>
+      <c r="BD182" s="3"/>
+      <c r="BE182" s="3"/>
+      <c r="BF182" s="3"/>
+    </row>
+    <row r="183" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -10801,8 +11624,12 @@
       <c r="AZ183" s="3"/>
       <c r="BA183" s="3"/>
       <c r="BB183" s="3"/>
-    </row>
-    <row r="184" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC183" s="3"/>
+      <c r="BD183" s="3"/>
+      <c r="BE183" s="3"/>
+      <c r="BF183" s="3"/>
+    </row>
+    <row r="184" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -10855,8 +11682,12 @@
       <c r="AZ184" s="3"/>
       <c r="BA184" s="3"/>
       <c r="BB184" s="3"/>
-    </row>
-    <row r="185" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC184" s="3"/>
+      <c r="BD184" s="3"/>
+      <c r="BE184" s="3"/>
+      <c r="BF184" s="3"/>
+    </row>
+    <row r="185" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -10909,8 +11740,12 @@
       <c r="AZ185" s="3"/>
       <c r="BA185" s="3"/>
       <c r="BB185" s="3"/>
-    </row>
-    <row r="186" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC185" s="3"/>
+      <c r="BD185" s="3"/>
+      <c r="BE185" s="3"/>
+      <c r="BF185" s="3"/>
+    </row>
+    <row r="186" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -10963,8 +11798,12 @@
       <c r="AZ186" s="3"/>
       <c r="BA186" s="3"/>
       <c r="BB186" s="3"/>
-    </row>
-    <row r="187" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC186" s="3"/>
+      <c r="BD186" s="3"/>
+      <c r="BE186" s="3"/>
+      <c r="BF186" s="3"/>
+    </row>
+    <row r="187" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -11017,8 +11856,12 @@
       <c r="AZ187" s="3"/>
       <c r="BA187" s="3"/>
       <c r="BB187" s="3"/>
-    </row>
-    <row r="188" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC187" s="3"/>
+      <c r="BD187" s="3"/>
+      <c r="BE187" s="3"/>
+      <c r="BF187" s="3"/>
+    </row>
+    <row r="188" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -11071,8 +11914,12 @@
       <c r="AZ188" s="3"/>
       <c r="BA188" s="3"/>
       <c r="BB188" s="3"/>
-    </row>
-    <row r="189" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC188" s="3"/>
+      <c r="BD188" s="3"/>
+      <c r="BE188" s="3"/>
+      <c r="BF188" s="3"/>
+    </row>
+    <row r="189" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -11125,8 +11972,12 @@
       <c r="AZ189" s="3"/>
       <c r="BA189" s="3"/>
       <c r="BB189" s="3"/>
-    </row>
-    <row r="190" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC189" s="3"/>
+      <c r="BD189" s="3"/>
+      <c r="BE189" s="3"/>
+      <c r="BF189" s="3"/>
+    </row>
+    <row r="190" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -11179,8 +12030,12 @@
       <c r="AZ190" s="3"/>
       <c r="BA190" s="3"/>
       <c r="BB190" s="3"/>
-    </row>
-    <row r="191" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC190" s="3"/>
+      <c r="BD190" s="3"/>
+      <c r="BE190" s="3"/>
+      <c r="BF190" s="3"/>
+    </row>
+    <row r="191" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -11233,8 +12088,12 @@
       <c r="AZ191" s="3"/>
       <c r="BA191" s="3"/>
       <c r="BB191" s="3"/>
-    </row>
-    <row r="192" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC191" s="3"/>
+      <c r="BD191" s="3"/>
+      <c r="BE191" s="3"/>
+      <c r="BF191" s="3"/>
+    </row>
+    <row r="192" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -11287,8 +12146,12 @@
       <c r="AZ192" s="3"/>
       <c r="BA192" s="3"/>
       <c r="BB192" s="3"/>
-    </row>
-    <row r="193" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC192" s="3"/>
+      <c r="BD192" s="3"/>
+      <c r="BE192" s="3"/>
+      <c r="BF192" s="3"/>
+    </row>
+    <row r="193" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -11341,8 +12204,12 @@
       <c r="AZ193" s="3"/>
       <c r="BA193" s="3"/>
       <c r="BB193" s="3"/>
-    </row>
-    <row r="194" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC193" s="3"/>
+      <c r="BD193" s="3"/>
+      <c r="BE193" s="3"/>
+      <c r="BF193" s="3"/>
+    </row>
+    <row r="194" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -11395,8 +12262,12 @@
       <c r="AZ194" s="3"/>
       <c r="BA194" s="3"/>
       <c r="BB194" s="3"/>
-    </row>
-    <row r="195" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC194" s="3"/>
+      <c r="BD194" s="3"/>
+      <c r="BE194" s="3"/>
+      <c r="BF194" s="3"/>
+    </row>
+    <row r="195" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -11449,8 +12320,12 @@
       <c r="AZ195" s="3"/>
       <c r="BA195" s="3"/>
       <c r="BB195" s="3"/>
-    </row>
-    <row r="196" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC195" s="3"/>
+      <c r="BD195" s="3"/>
+      <c r="BE195" s="3"/>
+      <c r="BF195" s="3"/>
+    </row>
+    <row r="196" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -11503,8 +12378,12 @@
       <c r="AZ196" s="3"/>
       <c r="BA196" s="3"/>
       <c r="BB196" s="3"/>
-    </row>
-    <row r="197" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC196" s="3"/>
+      <c r="BD196" s="3"/>
+      <c r="BE196" s="3"/>
+      <c r="BF196" s="3"/>
+    </row>
+    <row r="197" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -11557,8 +12436,12 @@
       <c r="AZ197" s="3"/>
       <c r="BA197" s="3"/>
       <c r="BB197" s="3"/>
-    </row>
-    <row r="198" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC197" s="3"/>
+      <c r="BD197" s="3"/>
+      <c r="BE197" s="3"/>
+      <c r="BF197" s="3"/>
+    </row>
+    <row r="198" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -11611,8 +12494,12 @@
       <c r="AZ198" s="3"/>
       <c r="BA198" s="3"/>
       <c r="BB198" s="3"/>
-    </row>
-    <row r="199" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC198" s="3"/>
+      <c r="BD198" s="3"/>
+      <c r="BE198" s="3"/>
+      <c r="BF198" s="3"/>
+    </row>
+    <row r="199" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -11665,8 +12552,12 @@
       <c r="AZ199" s="3"/>
       <c r="BA199" s="3"/>
       <c r="BB199" s="3"/>
-    </row>
-    <row r="200" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC199" s="3"/>
+      <c r="BD199" s="3"/>
+      <c r="BE199" s="3"/>
+      <c r="BF199" s="3"/>
+    </row>
+    <row r="200" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -11719,8 +12610,12 @@
       <c r="AZ200" s="3"/>
       <c r="BA200" s="3"/>
       <c r="BB200" s="3"/>
-    </row>
-    <row r="201" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC200" s="3"/>
+      <c r="BD200" s="3"/>
+      <c r="BE200" s="3"/>
+      <c r="BF200" s="3"/>
+    </row>
+    <row r="201" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -11773,8 +12668,12 @@
       <c r="AZ201" s="3"/>
       <c r="BA201" s="3"/>
       <c r="BB201" s="3"/>
-    </row>
-    <row r="202" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC201" s="3"/>
+      <c r="BD201" s="3"/>
+      <c r="BE201" s="3"/>
+      <c r="BF201" s="3"/>
+    </row>
+    <row r="202" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -11827,8 +12726,12 @@
       <c r="AZ202" s="3"/>
       <c r="BA202" s="3"/>
       <c r="BB202" s="3"/>
-    </row>
-    <row r="203" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC202" s="3"/>
+      <c r="BD202" s="3"/>
+      <c r="BE202" s="3"/>
+      <c r="BF202" s="3"/>
+    </row>
+    <row r="203" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -11881,8 +12784,12 @@
       <c r="AZ203" s="3"/>
       <c r="BA203" s="3"/>
       <c r="BB203" s="3"/>
-    </row>
-    <row r="204" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC203" s="3"/>
+      <c r="BD203" s="3"/>
+      <c r="BE203" s="3"/>
+      <c r="BF203" s="3"/>
+    </row>
+    <row r="204" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -11935,8 +12842,12 @@
       <c r="AZ204" s="3"/>
       <c r="BA204" s="3"/>
       <c r="BB204" s="3"/>
-    </row>
-    <row r="205" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC204" s="3"/>
+      <c r="BD204" s="3"/>
+      <c r="BE204" s="3"/>
+      <c r="BF204" s="3"/>
+    </row>
+    <row r="205" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -11989,8 +12900,12 @@
       <c r="AZ205" s="3"/>
       <c r="BA205" s="3"/>
       <c r="BB205" s="3"/>
-    </row>
-    <row r="206" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC205" s="3"/>
+      <c r="BD205" s="3"/>
+      <c r="BE205" s="3"/>
+      <c r="BF205" s="3"/>
+    </row>
+    <row r="206" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -12043,8 +12958,12 @@
       <c r="AZ206" s="3"/>
       <c r="BA206" s="3"/>
       <c r="BB206" s="3"/>
-    </row>
-    <row r="207" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC206" s="3"/>
+      <c r="BD206" s="3"/>
+      <c r="BE206" s="3"/>
+      <c r="BF206" s="3"/>
+    </row>
+    <row r="207" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -12097,8 +13016,12 @@
       <c r="AZ207" s="3"/>
       <c r="BA207" s="3"/>
       <c r="BB207" s="3"/>
-    </row>
-    <row r="208" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC207" s="3"/>
+      <c r="BD207" s="3"/>
+      <c r="BE207" s="3"/>
+      <c r="BF207" s="3"/>
+    </row>
+    <row r="208" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -12151,8 +13074,12 @@
       <c r="AZ208" s="3"/>
       <c r="BA208" s="3"/>
       <c r="BB208" s="3"/>
-    </row>
-    <row r="209" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC208" s="3"/>
+      <c r="BD208" s="3"/>
+      <c r="BE208" s="3"/>
+      <c r="BF208" s="3"/>
+    </row>
+    <row r="209" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -12205,8 +13132,12 @@
       <c r="AZ209" s="3"/>
       <c r="BA209" s="3"/>
       <c r="BB209" s="3"/>
-    </row>
-    <row r="210" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC209" s="3"/>
+      <c r="BD209" s="3"/>
+      <c r="BE209" s="3"/>
+      <c r="BF209" s="3"/>
+    </row>
+    <row r="210" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -12259,8 +13190,12 @@
       <c r="AZ210" s="3"/>
       <c r="BA210" s="3"/>
       <c r="BB210" s="3"/>
-    </row>
-    <row r="211" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC210" s="3"/>
+      <c r="BD210" s="3"/>
+      <c r="BE210" s="3"/>
+      <c r="BF210" s="3"/>
+    </row>
+    <row r="211" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -12313,8 +13248,12 @@
       <c r="AZ211" s="3"/>
       <c r="BA211" s="3"/>
       <c r="BB211" s="3"/>
-    </row>
-    <row r="212" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC211" s="3"/>
+      <c r="BD211" s="3"/>
+      <c r="BE211" s="3"/>
+      <c r="BF211" s="3"/>
+    </row>
+    <row r="212" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -12367,8 +13306,12 @@
       <c r="AZ212" s="3"/>
       <c r="BA212" s="3"/>
       <c r="BB212" s="3"/>
-    </row>
-    <row r="213" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC212" s="3"/>
+      <c r="BD212" s="3"/>
+      <c r="BE212" s="3"/>
+      <c r="BF212" s="3"/>
+    </row>
+    <row r="213" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -12421,8 +13364,12 @@
       <c r="AZ213" s="3"/>
       <c r="BA213" s="3"/>
       <c r="BB213" s="3"/>
-    </row>
-    <row r="214" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC213" s="3"/>
+      <c r="BD213" s="3"/>
+      <c r="BE213" s="3"/>
+      <c r="BF213" s="3"/>
+    </row>
+    <row r="214" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -12475,8 +13422,12 @@
       <c r="AZ214" s="3"/>
       <c r="BA214" s="3"/>
       <c r="BB214" s="3"/>
-    </row>
-    <row r="215" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC214" s="3"/>
+      <c r="BD214" s="3"/>
+      <c r="BE214" s="3"/>
+      <c r="BF214" s="3"/>
+    </row>
+    <row r="215" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -12529,8 +13480,12 @@
       <c r="AZ215" s="3"/>
       <c r="BA215" s="3"/>
       <c r="BB215" s="3"/>
-    </row>
-    <row r="216" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC215" s="3"/>
+      <c r="BD215" s="3"/>
+      <c r="BE215" s="3"/>
+      <c r="BF215" s="3"/>
+    </row>
+    <row r="216" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -12583,8 +13538,12 @@
       <c r="AZ216" s="3"/>
       <c r="BA216" s="3"/>
       <c r="BB216" s="3"/>
-    </row>
-    <row r="217" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC216" s="3"/>
+      <c r="BD216" s="3"/>
+      <c r="BE216" s="3"/>
+      <c r="BF216" s="3"/>
+    </row>
+    <row r="217" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -12637,8 +13596,12 @@
       <c r="AZ217" s="3"/>
       <c r="BA217" s="3"/>
       <c r="BB217" s="3"/>
-    </row>
-    <row r="218" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC217" s="3"/>
+      <c r="BD217" s="3"/>
+      <c r="BE217" s="3"/>
+      <c r="BF217" s="3"/>
+    </row>
+    <row r="218" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -12691,8 +13654,12 @@
       <c r="AZ218" s="3"/>
       <c r="BA218" s="3"/>
       <c r="BB218" s="3"/>
-    </row>
-    <row r="219" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC218" s="3"/>
+      <c r="BD218" s="3"/>
+      <c r="BE218" s="3"/>
+      <c r="BF218" s="3"/>
+    </row>
+    <row r="219" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -12745,8 +13712,12 @@
       <c r="AZ219" s="3"/>
       <c r="BA219" s="3"/>
       <c r="BB219" s="3"/>
-    </row>
-    <row r="220" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC219" s="3"/>
+      <c r="BD219" s="3"/>
+      <c r="BE219" s="3"/>
+      <c r="BF219" s="3"/>
+    </row>
+    <row r="220" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -12799,8 +13770,12 @@
       <c r="AZ220" s="3"/>
       <c r="BA220" s="3"/>
       <c r="BB220" s="3"/>
-    </row>
-    <row r="221" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC220" s="3"/>
+      <c r="BD220" s="3"/>
+      <c r="BE220" s="3"/>
+      <c r="BF220" s="3"/>
+    </row>
+    <row r="221" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -12853,8 +13828,12 @@
       <c r="AZ221" s="3"/>
       <c r="BA221" s="3"/>
       <c r="BB221" s="3"/>
-    </row>
-    <row r="222" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC221" s="3"/>
+      <c r="BD221" s="3"/>
+      <c r="BE221" s="3"/>
+      <c r="BF221" s="3"/>
+    </row>
+    <row r="222" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -12907,8 +13886,12 @@
       <c r="AZ222" s="3"/>
       <c r="BA222" s="3"/>
       <c r="BB222" s="3"/>
-    </row>
-    <row r="223" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC222" s="3"/>
+      <c r="BD222" s="3"/>
+      <c r="BE222" s="3"/>
+      <c r="BF222" s="3"/>
+    </row>
+    <row r="223" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -12961,8 +13944,12 @@
       <c r="AZ223" s="3"/>
       <c r="BA223" s="3"/>
       <c r="BB223" s="3"/>
-    </row>
-    <row r="224" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC223" s="3"/>
+      <c r="BD223" s="3"/>
+      <c r="BE223" s="3"/>
+      <c r="BF223" s="3"/>
+    </row>
+    <row r="224" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -13015,8 +14002,12 @@
       <c r="AZ224" s="3"/>
       <c r="BA224" s="3"/>
       <c r="BB224" s="3"/>
-    </row>
-    <row r="225" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC224" s="3"/>
+      <c r="BD224" s="3"/>
+      <c r="BE224" s="3"/>
+      <c r="BF224" s="3"/>
+    </row>
+    <row r="225" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -13069,8 +14060,12 @@
       <c r="AZ225" s="3"/>
       <c r="BA225" s="3"/>
       <c r="BB225" s="3"/>
-    </row>
-    <row r="226" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC225" s="3"/>
+      <c r="BD225" s="3"/>
+      <c r="BE225" s="3"/>
+      <c r="BF225" s="3"/>
+    </row>
+    <row r="226" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -13123,8 +14118,12 @@
       <c r="AZ226" s="3"/>
       <c r="BA226" s="3"/>
       <c r="BB226" s="3"/>
-    </row>
-    <row r="227" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC226" s="3"/>
+      <c r="BD226" s="3"/>
+      <c r="BE226" s="3"/>
+      <c r="BF226" s="3"/>
+    </row>
+    <row r="227" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -13177,8 +14176,12 @@
       <c r="AZ227" s="3"/>
       <c r="BA227" s="3"/>
       <c r="BB227" s="3"/>
-    </row>
-    <row r="228" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC227" s="3"/>
+      <c r="BD227" s="3"/>
+      <c r="BE227" s="3"/>
+      <c r="BF227" s="3"/>
+    </row>
+    <row r="228" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -13231,8 +14234,12 @@
       <c r="AZ228" s="3"/>
       <c r="BA228" s="3"/>
       <c r="BB228" s="3"/>
-    </row>
-    <row r="229" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC228" s="3"/>
+      <c r="BD228" s="3"/>
+      <c r="BE228" s="3"/>
+      <c r="BF228" s="3"/>
+    </row>
+    <row r="229" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -13285,8 +14292,12 @@
       <c r="AZ229" s="3"/>
       <c r="BA229" s="3"/>
       <c r="BB229" s="3"/>
-    </row>
-    <row r="230" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC229" s="3"/>
+      <c r="BD229" s="3"/>
+      <c r="BE229" s="3"/>
+      <c r="BF229" s="3"/>
+    </row>
+    <row r="230" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -13339,8 +14350,12 @@
       <c r="AZ230" s="3"/>
       <c r="BA230" s="3"/>
       <c r="BB230" s="3"/>
-    </row>
-    <row r="231" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC230" s="3"/>
+      <c r="BD230" s="3"/>
+      <c r="BE230" s="3"/>
+      <c r="BF230" s="3"/>
+    </row>
+    <row r="231" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -13393,8 +14408,12 @@
       <c r="AZ231" s="3"/>
       <c r="BA231" s="3"/>
       <c r="BB231" s="3"/>
-    </row>
-    <row r="232" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC231" s="3"/>
+      <c r="BD231" s="3"/>
+      <c r="BE231" s="3"/>
+      <c r="BF231" s="3"/>
+    </row>
+    <row r="232" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -13447,8 +14466,12 @@
       <c r="AZ232" s="3"/>
       <c r="BA232" s="3"/>
       <c r="BB232" s="3"/>
-    </row>
-    <row r="233" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC232" s="3"/>
+      <c r="BD232" s="3"/>
+      <c r="BE232" s="3"/>
+      <c r="BF232" s="3"/>
+    </row>
+    <row r="233" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -13501,8 +14524,12 @@
       <c r="AZ233" s="3"/>
       <c r="BA233" s="3"/>
       <c r="BB233" s="3"/>
-    </row>
-    <row r="234" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC233" s="3"/>
+      <c r="BD233" s="3"/>
+      <c r="BE233" s="3"/>
+      <c r="BF233" s="3"/>
+    </row>
+    <row r="234" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -13555,8 +14582,12 @@
       <c r="AZ234" s="3"/>
       <c r="BA234" s="3"/>
       <c r="BB234" s="3"/>
-    </row>
-    <row r="235" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC234" s="3"/>
+      <c r="BD234" s="3"/>
+      <c r="BE234" s="3"/>
+      <c r="BF234" s="3"/>
+    </row>
+    <row r="235" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -13609,8 +14640,12 @@
       <c r="AZ235" s="3"/>
       <c r="BA235" s="3"/>
       <c r="BB235" s="3"/>
-    </row>
-    <row r="236" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC235" s="3"/>
+      <c r="BD235" s="3"/>
+      <c r="BE235" s="3"/>
+      <c r="BF235" s="3"/>
+    </row>
+    <row r="236" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -13663,8 +14698,12 @@
       <c r="AZ236" s="3"/>
       <c r="BA236" s="3"/>
       <c r="BB236" s="3"/>
-    </row>
-    <row r="237" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC236" s="3"/>
+      <c r="BD236" s="3"/>
+      <c r="BE236" s="3"/>
+      <c r="BF236" s="3"/>
+    </row>
+    <row r="237" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -13717,8 +14756,12 @@
       <c r="AZ237" s="3"/>
       <c r="BA237" s="3"/>
       <c r="BB237" s="3"/>
-    </row>
-    <row r="238" spans="3:54" x14ac:dyDescent="0.25">
+      <c r="BC237" s="3"/>
+      <c r="BD237" s="3"/>
+      <c r="BE237" s="3"/>
+      <c r="BF237" s="3"/>
+    </row>
+    <row r="238" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -13771,6 +14814,10 @@
       <c r="AZ238" s="3"/>
       <c r="BA238" s="3"/>
       <c r="BB238" s="3"/>
+      <c r="BC238" s="3"/>
+      <c r="BD238" s="3"/>
+      <c r="BE238" s="3"/>
+      <c r="BF238" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/BURL.xlsx
+++ b/BURL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AC217D-8152-46B2-A267-536130DA61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF7ACB-AE5F-43F9-B946-F70BBB59FD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{C745F4EA-6A7E-4A07-A8BF-2B36F0EE508D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{C745F4EA-6A7E-4A07-A8BF-2B36F0EE508D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -186,16 +186,16 @@
     <t>Q425</t>
   </si>
   <si>
-    <t>Q126</t>
+    <t>Q123</t>
   </si>
   <si>
-    <t>Q226</t>
+    <t>Q223</t>
   </si>
   <si>
-    <t>Q326</t>
+    <t>Q323</t>
   </si>
   <si>
-    <t>Q426</t>
+    <t>Q423</t>
   </si>
 </sst>
 </file>
@@ -205,13 +205,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,22 +274,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -622,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF51F298-D9E0-4E7E-A11D-B7C7DAC26F50}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -645,18 +654,18 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>279.45999999999998</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
-        <v>63.086660000000002</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>49</v>
+      <c r="I3" s="6">
+        <v>63.893000000000001</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -668,7 +677,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>17630.198003599999</v>
+        <v>17826.147000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -679,10 +688,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>371.09199999999998</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>49</v>
+        <v>747.61900000000003</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -690,11 +699,11 @@
         <v>6</v>
       </c>
       <c r="I6" s="3">
-        <f>1637.073+14.804</f>
-        <v>1651.8770000000002</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
+        <f>2019.409+19.896</f>
+        <v>2039.3050000000001</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -703,7 +712,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>18910.983003599998</v>
+        <v>19117.833000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -724,11 +733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7958BF-2B17-4548-B028-78081AE6CD78}">
   <dimension ref="A1:BF238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -744,41 +753,41 @@
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="M2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="N2" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>38</v>
@@ -863,7 +872,9 @@
       <c r="K5" s="6">
         <v>2500.0749999999998</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <v>2701.0259999999998</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -932,7 +943,9 @@
       <c r="K6" s="6">
         <v>3.9449999999999998</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6">
+        <v>4.0449999999999999</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1020,7 +1033,10 @@
         <f>+K5+K6</f>
         <v>2504.02</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <f>+L5+L6</f>
+        <v>2705.0709999999999</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="6"/>
@@ -1089,7 +1105,9 @@
       <c r="K8" s="6">
         <v>1405.0909999999999</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <v>1519.6289999999999</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1170,14 +1188,17 @@
         <v>1112.5529999999999</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" ref="J9:K9" si="2">+J7-J8</f>
+        <f t="shared" ref="J9:L9" si="2">+J7-J8</f>
         <v>0</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="2"/>
         <v>1098.9290000000001</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6">
+        <f t="shared" si="2"/>
+        <v>1185.442</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1246,7 +1267,9 @@
       <c r="K10" s="6">
         <v>868.05799999999999</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6">
+        <v>949.93100000000004</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -1315,7 +1338,9 @@
       <c r="K11" s="6">
         <v>0.112</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1384,7 +1409,9 @@
       <c r="K12" s="6">
         <v>91.783000000000001</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6">
+        <v>94.81</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1453,7 +1480,9 @@
       <c r="K13" s="6">
         <v>0.51600000000000001</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6">
+        <v>1.58</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -1522,7 +1551,9 @@
       <c r="K14" s="6">
         <v>10.222</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6">
+        <v>5.63</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -1603,14 +1634,17 @@
         <v>137.23899999999986</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" ref="J15:K15" si="4">+J9-SUM(J10:J13)+J14</f>
+        <f t="shared" ref="J15:L15" si="4">+J9-SUM(J10:J13)+J14</f>
         <v>0</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="4"/>
         <v>148.68200000000016</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <f t="shared" si="4"/>
+        <v>144.75100000000009</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -1679,7 +1713,9 @@
       <c r="K16" s="6">
         <v>0</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -1748,7 +1784,9 @@
       <c r="K17" s="6">
         <v>15.81</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6">
+        <v>17.427</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -1829,14 +1867,17 @@
         <v>118.05799999999985</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" ref="J18:K18" si="6">+J15-J16-J17</f>
+        <f t="shared" ref="J18:L18" si="6">+J15-J16-J17</f>
         <v>0</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="6"/>
         <v>132.87200000000016</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6">
+        <f t="shared" si="6"/>
+        <v>127.3240000000001</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -1905,7 +1946,9 @@
       <c r="K19" s="6">
         <v>32.039000000000001</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6">
+        <v>33.139000000000003</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -1986,14 +2029,17 @@
         <v>90.616999999999848</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" ref="J20:K20" si="8">+J18-J19</f>
+        <f t="shared" ref="J20:L20" si="8">+J18-J19</f>
         <v>0</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="8"/>
         <v>100.83300000000015</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6">
+        <f t="shared" si="8"/>
+        <v>94.185000000000088</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2132,14 +2178,17 @@
         <v>1.4256249705017046</v>
       </c>
       <c r="J22" s="6" t="e">
-        <f t="shared" ref="J22:K22" si="10">+J20/J23</f>
+        <f t="shared" ref="J22:L22" si="10">+J20/J23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="10"/>
         <v>1.5982912756784198</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6">
+        <f t="shared" si="10"/>
+        <v>1.4741051445385267</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2208,7 +2257,9 @@
       <c r="K23" s="6">
         <v>63.088000000000001</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6">
+        <v>63.893000000000001</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>

--- a/BURL.xlsx
+++ b/BURL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF7ACB-AE5F-43F9-B946-F70BBB59FD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2FCFB2-09CE-4749-819D-1EFB28292E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{C745F4EA-6A7E-4A07-A8BF-2B36F0EE508D}"/>
   </bookViews>
@@ -205,13 +205,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -274,22 +280,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -632,7 +641,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -654,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>279</v>
+        <v>252.2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -662,10 +671,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="6">
-        <v>63.893000000000001</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>46</v>
+        <v>62.927005999999999</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -677,7 +686,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>17826.147000000001</v>
+        <v>15870.190913199998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -688,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>747.61900000000003</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>46</v>
+        <v>584.07899999999995</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -699,11 +708,11 @@
         <v>6</v>
       </c>
       <c r="I6" s="3">
-        <f>2019.409+19.896</f>
-        <v>2039.3050000000001</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>46</v>
+        <f>2015.471+19.953</f>
+        <v>2035.424</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -712,7 +721,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>19117.833000000002</v>
+        <v>17321.535913199998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -734,10 +743,10 @@
   <dimension ref="A1:BF238"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -875,7 +884,9 @@
       <c r="L5" s="6">
         <v>2701.0259999999998</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6">
+        <v>2706.0030000000002</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -946,7 +957,9 @@
       <c r="L6" s="6">
         <v>4.0449999999999999</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6">
+        <v>4.4370000000000003</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1037,7 +1050,10 @@
         <f>+L5+L6</f>
         <v>2705.0709999999999</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7">
+        <f>+M5+M6</f>
+        <v>2710.44</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1108,7 +1124,9 @@
       <c r="L8" s="6">
         <v>1519.6289999999999</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>1509.8530000000001</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1188,7 +1206,7 @@
         <v>1112.5529999999999</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" ref="J9:L9" si="2">+J7-J8</f>
+        <f t="shared" ref="J9:M9" si="2">+J7-J8</f>
         <v>0</v>
       </c>
       <c r="K9" s="6">
@@ -1199,7 +1217,10 @@
         <f t="shared" si="2"/>
         <v>1185.442</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6">
+        <f t="shared" si="2"/>
+        <v>1200.587</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1270,7 +1291,9 @@
       <c r="L10" s="6">
         <v>949.93100000000004</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6">
+        <v>947.51800000000003</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1341,7 +1364,9 @@
       <c r="L11" s="6">
         <v>0</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1412,7 +1437,9 @@
       <c r="L12" s="6">
         <v>94.81</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6">
+        <v>99.283000000000001</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1483,7 +1510,9 @@
       <c r="L13" s="6">
         <v>1.58</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6">
+        <v>3.786</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -1554,7 +1583,9 @@
       <c r="L14" s="6">
         <v>5.63</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6">
+        <v>2.3090000000000002</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1634,7 +1665,7 @@
         <v>137.23899999999986</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" ref="J15:L15" si="4">+J9-SUM(J10:J13)+J14</f>
+        <f t="shared" ref="J15:M15" si="4">+J9-SUM(J10:J13)+J14</f>
         <v>0</v>
       </c>
       <c r="K15" s="6">
@@ -1645,7 +1676,10 @@
         <f t="shared" si="4"/>
         <v>144.75100000000009</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6">
+        <f t="shared" si="4"/>
+        <v>152.309</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -1716,7 +1750,9 @@
       <c r="L16" s="6">
         <v>0</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -1787,7 +1823,10 @@
       <c r="L17" s="6">
         <v>17.427</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6">
+        <f>19.154-4.904</f>
+        <v>14.25</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -1867,7 +1906,7 @@
         <v>118.05799999999985</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" ref="J18:L18" si="6">+J15-J16-J17</f>
+        <f t="shared" ref="J18:M18" si="6">+J15-J16-J17</f>
         <v>0</v>
       </c>
       <c r="K18" s="6">
@@ -1878,7 +1917,10 @@
         <f t="shared" si="6"/>
         <v>127.3240000000001</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6">
+        <f t="shared" si="6"/>
+        <v>138.059</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -1949,7 +1991,9 @@
       <c r="L19" s="6">
         <v>33.139000000000003</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6">
+        <v>33.308999999999997</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2029,7 +2073,7 @@
         <v>90.616999999999848</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" ref="J20:L20" si="8">+J18-J19</f>
+        <f t="shared" ref="J20:M20" si="8">+J18-J19</f>
         <v>0</v>
       </c>
       <c r="K20" s="6">
@@ -2040,7 +2084,10 @@
         <f t="shared" si="8"/>
         <v>94.185000000000088</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="6">
+        <f t="shared" si="8"/>
+        <v>104.75</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2178,7 +2225,7 @@
         <v>1.4256249705017046</v>
       </c>
       <c r="J22" s="6" t="e">
-        <f t="shared" ref="J22:L22" si="10">+J20/J23</f>
+        <f t="shared" ref="J22:M22" si="10">+J20/J23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="6">
@@ -2189,7 +2236,10 @@
         <f t="shared" si="10"/>
         <v>1.4741051445385267</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="6">
+        <f t="shared" si="10"/>
+        <v>1.6631736051570289</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2260,7 +2310,9 @@
       <c r="L23" s="6">
         <v>63.893000000000001</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="6">
+        <v>62.981999999999999</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -2393,8 +2445,14 @@
         <f>+K7/G7-1</f>
         <v>6.0327674204220472E-2</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="L25" s="8" t="e">
+        <f>+L7/H7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="8">
+        <f>+M7/I7-1</f>
+        <v>7.1025520252136154E-2</v>
+      </c>
       <c r="N25" s="9"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2481,8 +2539,14 @@
         <f>+K10/K7</f>
         <v>0.34666576145557942</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="L26" s="9">
+        <f>+L10/L7</f>
+        <v>0.35116675310925299</v>
+      </c>
+      <c r="M26" s="9">
+        <f>+M10/M7</f>
+        <v>0.34958087985714498</v>
+      </c>
       <c r="N26" s="9"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -2569,8 +2633,14 @@
         <f>+K15/K7</f>
         <v>5.9377321267402083E-2</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="9">
+        <f>+L15/L7</f>
+        <v>5.351097993361361E-2</v>
+      </c>
+      <c r="M27" s="9">
+        <f>+M15/M7</f>
+        <v>5.6193459364531219E-2</v>
+      </c>
       <c r="N27" s="9"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2657,8 +2727,14 @@
         <f>+K19/K18</f>
         <v>0.24112679872358334</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="9">
+        <f>+L19/L18</f>
+        <v>0.2602730043039802</v>
+      </c>
+      <c r="M28" s="9">
+        <f>+M19/M18</f>
+        <v>0.24126641508340635</v>
+      </c>
       <c r="N28" s="9"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
